--- a/capiq_data/in_process_data/IQ881430.xlsx
+++ b/capiq_data/in_process_data/IQ881430.xlsx
@@ -1,22 +1,22 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23628"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23801"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\yedid\Desktop\capiq_3\in_process_data\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\yedid\Desktop\credit_rating_predictions-main\capiq_data\in_process_data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E36792AE-F154-4E7D-9431-FC1167AA8FF5}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A5246C6D-DA06-454B-BDD4-8A6AF2351355}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="4800" yWindow="98" windowWidth="14400" windowHeight="8325" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-98" yWindow="-98" windowWidth="19396" windowHeight="11596" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="CIQWBGuid" hidden="1">"fcac2e39-8f5f-47ff-b0c4-87eb34a9b39b"</definedName>
+    <definedName name="CIQWBGuid" hidden="1">"47f5efc0-e289-48d9-99ee-3a401502d506"</definedName>
     <definedName name="CIQWBInfo" hidden="1">"{ ""CIQVersion"":""9.45.614.5792"" }"</definedName>
     <definedName name="IQ_CH">110000</definedName>
     <definedName name="IQ_CQ">5000</definedName>
@@ -41,40 +41,40 @@
     <definedName name="IQ_LTMMONTH" hidden="1">120000</definedName>
     <definedName name="IQ_MONTH">15000</definedName>
     <definedName name="IQ_MTD" hidden="1">800000</definedName>
-    <definedName name="IQ_NAMES_REVISION_DATE_" hidden="1">44257.9003703704</definedName>
+    <definedName name="IQ_NAMES_REVISION_DATE_" hidden="1">44278.8607986111</definedName>
     <definedName name="IQ_NTM">6000</definedName>
     <definedName name="IQ_QTD" hidden="1">750000</definedName>
     <definedName name="IQ_TODAY" hidden="1">0</definedName>
     <definedName name="IQ_WEEK">50000</definedName>
     <definedName name="IQ_YTD">3000</definedName>
     <definedName name="IQ_YTDMONTH" hidden="1">130000</definedName>
-    <definedName name="IQRA1" hidden="1">Sheet!$A$2:$A$42</definedName>
-    <definedName name="IQRAA1" hidden="1">Sheet!$AA$2:$AA$42</definedName>
-    <definedName name="IQRB1" hidden="1">Sheet!$B$2:$B$42</definedName>
-    <definedName name="IQRC1" hidden="1">Sheet!$C$2:$C$42</definedName>
-    <definedName name="IQRD1" hidden="1">Sheet!$D$2:$D$42</definedName>
-    <definedName name="IQRE1" hidden="1">Sheet!$E$2:$E$42</definedName>
-    <definedName name="IQRF1" hidden="1">Sheet!$F$2:$F$42</definedName>
-    <definedName name="IQRG1" hidden="1">Sheet!$G$2:$G$42</definedName>
-    <definedName name="IQRH1" hidden="1">Sheet!$H$2:$H$42</definedName>
-    <definedName name="IQRI1" hidden="1">Sheet!$I$2:$I$42</definedName>
-    <definedName name="IQRJ1" hidden="1">Sheet!$J$2:$J$42</definedName>
-    <definedName name="IQRK1" hidden="1">Sheet!$K$2:$K$42</definedName>
-    <definedName name="IQRL1" hidden="1">Sheet!$L$2:$L$42</definedName>
-    <definedName name="IQRM1" hidden="1">Sheet!$M$2:$M$42</definedName>
-    <definedName name="IQRN1" hidden="1">Sheet!$N$2:$N$42</definedName>
-    <definedName name="IQRO1" hidden="1">Sheet!$O$2:$O$42</definedName>
-    <definedName name="IQRP1" hidden="1">Sheet!$P$2:$P$42</definedName>
-    <definedName name="IQRQ1" hidden="1">Sheet!$Q$2:$Q$42</definedName>
-    <definedName name="IQRR1" hidden="1">Sheet!$R$2:$R$42</definedName>
-    <definedName name="IQRS1" hidden="1">Sheet!$S$2:$S$42</definedName>
-    <definedName name="IQRT1" hidden="1">Sheet!$T$2:$T$42</definedName>
-    <definedName name="IQRU1" hidden="1">Sheet!$U$2:$U$42</definedName>
-    <definedName name="IQRV1" hidden="1">Sheet!$V$2:$V$42</definedName>
-    <definedName name="IQRW1" hidden="1">Sheet!$W$2:$W$42</definedName>
-    <definedName name="IQRX1" hidden="1">Sheet!$X$2:$X$42</definedName>
-    <definedName name="IQRY1" hidden="1">Sheet!$Y$2:$Y$42</definedName>
-    <definedName name="IQRZ1" hidden="1">Sheet!$Z$2:$Z$42</definedName>
+    <definedName name="IQRA1" hidden="1">Sheet!$A$2:$A$82</definedName>
+    <definedName name="IQRAA1" hidden="1">Sheet!$AA$2:$AA$82</definedName>
+    <definedName name="IQRB1" hidden="1">Sheet!$B$2:$B$82</definedName>
+    <definedName name="IQRC1" hidden="1">Sheet!$C$2:$C$82</definedName>
+    <definedName name="IQRD1" hidden="1">Sheet!$D$2:$D$82</definedName>
+    <definedName name="IQRE1" hidden="1">Sheet!$E$2:$E$82</definedName>
+    <definedName name="IQRF1" hidden="1">Sheet!$F$2:$F$82</definedName>
+    <definedName name="IQRG1" hidden="1">Sheet!$G$2:$G$82</definedName>
+    <definedName name="IQRH1" hidden="1">Sheet!$H$2:$H$82</definedName>
+    <definedName name="IQRI1" hidden="1">Sheet!$I$2:$I$82</definedName>
+    <definedName name="IQRJ1" hidden="1">Sheet!$J$2:$J$82</definedName>
+    <definedName name="IQRK1" hidden="1">Sheet!$K$2:$K$82</definedName>
+    <definedName name="IQRL1" hidden="1">Sheet!$L$2:$L$82</definedName>
+    <definedName name="IQRM1" hidden="1">Sheet!$M$2:$M$82</definedName>
+    <definedName name="IQRN1" hidden="1">Sheet!$N$2:$N$82</definedName>
+    <definedName name="IQRO1" hidden="1">Sheet!$O$2:$O$82</definedName>
+    <definedName name="IQRP1" hidden="1">Sheet!$P$2:$P$82</definedName>
+    <definedName name="IQRQ1" hidden="1">Sheet!$Q$2:$Q$82</definedName>
+    <definedName name="IQRR1" hidden="1">Sheet!$R$2:$R$82</definedName>
+    <definedName name="IQRS1" hidden="1">Sheet!$S$2:$S$82</definedName>
+    <definedName name="IQRT1" hidden="1">Sheet!$T$2:$T$82</definedName>
+    <definedName name="IQRU1" hidden="1">Sheet!$U$2:$U$82</definedName>
+    <definedName name="IQRV1" hidden="1">Sheet!$V$2:$V$82</definedName>
+    <definedName name="IQRW1" hidden="1">Sheet!$W$2:$W$82</definedName>
+    <definedName name="IQRX1" hidden="1">Sheet!$X$2:$X$82</definedName>
+    <definedName name="IQRY1" hidden="1">Sheet!$Y$2:$Y$82</definedName>
+    <definedName name="IQRZ1" hidden="1">Sheet!$Z$2:$Z$82</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -92,7 +92,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="68" uniqueCount="68">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="108" uniqueCount="108">
   <si>
     <t>Date</t>
   </si>
@@ -173,6 +173,126 @@
   </si>
   <si>
     <t>IQ_NI</t>
+  </si>
+  <si>
+    <t>FQ42000</t>
+  </si>
+  <si>
+    <t>FQ12001</t>
+  </si>
+  <si>
+    <t>FQ22001</t>
+  </si>
+  <si>
+    <t>FQ32001</t>
+  </si>
+  <si>
+    <t>FQ42001</t>
+  </si>
+  <si>
+    <t>FQ12002</t>
+  </si>
+  <si>
+    <t>FQ22002</t>
+  </si>
+  <si>
+    <t>FQ32002</t>
+  </si>
+  <si>
+    <t>FQ42002</t>
+  </si>
+  <si>
+    <t>FQ12003</t>
+  </si>
+  <si>
+    <t>FQ22003</t>
+  </si>
+  <si>
+    <t>FQ32003</t>
+  </si>
+  <si>
+    <t>FQ42003</t>
+  </si>
+  <si>
+    <t>FQ12004</t>
+  </si>
+  <si>
+    <t>FQ22004</t>
+  </si>
+  <si>
+    <t>FQ32004</t>
+  </si>
+  <si>
+    <t>FQ42004</t>
+  </si>
+  <si>
+    <t>FQ12005</t>
+  </si>
+  <si>
+    <t>FQ22005</t>
+  </si>
+  <si>
+    <t>FQ32005</t>
+  </si>
+  <si>
+    <t>FQ42005</t>
+  </si>
+  <si>
+    <t>FQ12006</t>
+  </si>
+  <si>
+    <t>FQ22006</t>
+  </si>
+  <si>
+    <t>FQ32006</t>
+  </si>
+  <si>
+    <t>FQ42006</t>
+  </si>
+  <si>
+    <t>FQ12007</t>
+  </si>
+  <si>
+    <t>FQ22007</t>
+  </si>
+  <si>
+    <t>FQ32007</t>
+  </si>
+  <si>
+    <t>FQ42007</t>
+  </si>
+  <si>
+    <t>FQ12008</t>
+  </si>
+  <si>
+    <t>FQ22008</t>
+  </si>
+  <si>
+    <t>FQ32008</t>
+  </si>
+  <si>
+    <t>FQ42008</t>
+  </si>
+  <si>
+    <t>FQ12009</t>
+  </si>
+  <si>
+    <t>FQ22009</t>
+  </si>
+  <si>
+    <t>FQ32009</t>
+  </si>
+  <si>
+    <t>FQ42009</t>
+  </si>
+  <si>
+    <t>FQ12010</t>
+  </si>
+  <si>
+    <t>FQ22010</t>
+  </si>
+  <si>
+    <t>FQ32010</t>
   </si>
   <si>
     <t>FQ42010</t>
@@ -639,7 +759,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:AA42"/>
+  <dimension ref="A1:AA82"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -733,37 +853,37 @@
     </row>
     <row r="2" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A2" s="1">
-        <v>40543</v>
+        <v>36891</v>
       </c>
       <c r="B2" t="s">
         <v>27</v>
       </c>
       <c r="C2">
-        <v>55.183999999999997</v>
+        <v>36.210999999999999</v>
       </c>
       <c r="D2">
-        <v>290.20400000000001</v>
+        <v>47.804000000000002</v>
       </c>
       <c r="E2">
-        <v>101.962</v>
+        <v>24.413</v>
       </c>
       <c r="F2">
-        <v>70.557000000000002</v>
+        <v>26.233000000000001</v>
       </c>
       <c r="G2">
-        <v>262.16899999999998</v>
+        <v>42.412999999999997</v>
       </c>
       <c r="H2">
-        <v>2856.848</v>
+        <v>1114.799</v>
       </c>
       <c r="I2">
-        <v>80.528000000000006</v>
+        <v>17.538</v>
       </c>
       <c r="J2">
-        <v>1296.2560000000001</v>
+        <v>243.423</v>
       </c>
       <c r="K2">
-        <v>0</v>
+        <v>0.99199999999999999</v>
       </c>
       <c r="L2">
         <v>0</v>
@@ -772,120 +892,120 @@
         <v>0</v>
       </c>
       <c r="N2">
-        <v>137.15600000000001</v>
+        <v>118.06</v>
       </c>
       <c r="O2">
-        <v>1806.24</v>
+        <v>543.68299999999999</v>
       </c>
       <c r="P2">
-        <v>1308.7919999999999</v>
+        <v>330.41500000000002</v>
       </c>
       <c r="Q2">
-        <v>123.375</v>
+        <v>10.786</v>
       </c>
       <c r="R2">
-        <v>40543</v>
+        <v>36891</v>
       </c>
       <c r="S2">
-        <v>428</v>
+        <v>0</v>
       </c>
       <c r="T2">
-        <v>1050.6079999999999</v>
+        <v>571.11599999999999</v>
       </c>
       <c r="U2">
-        <v>125.39700000000001</v>
+        <v>0</v>
       </c>
       <c r="V2">
-        <v>54.603000000000002</v>
+        <v>14.73</v>
       </c>
       <c r="W2">
-        <v>-64.257999999999996</v>
+        <v>-16.866</v>
       </c>
       <c r="X2">
-        <v>175.64500000000001</v>
+        <v>-11.83</v>
       </c>
       <c r="Y2">
-        <v>2.4809999999999999</v>
+        <v>0</v>
       </c>
       <c r="Z2">
         <v>0</v>
       </c>
       <c r="AA2">
-        <v>55.183999999999997</v>
+        <v>36.210999999999999</v>
       </c>
     </row>
     <row r="3" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A3" s="1">
-        <v>40633</v>
+        <v>36981</v>
       </c>
       <c r="B3" t="s">
         <v>28</v>
       </c>
       <c r="C3">
-        <v>42.491999999999997</v>
+        <v>5.4009999999999998</v>
       </c>
       <c r="D3">
-        <v>394.29300000000001</v>
+        <v>47.423000000000002</v>
       </c>
       <c r="E3">
-        <v>96.914000000000001</v>
+        <v>24.523</v>
       </c>
       <c r="F3">
-        <v>82.492000000000004</v>
+        <v>29.178000000000001</v>
       </c>
       <c r="G3">
-        <v>347.02699999999999</v>
+        <v>39.423000000000002</v>
       </c>
       <c r="H3">
-        <v>3153.346</v>
+        <v>1093.127</v>
       </c>
       <c r="I3">
-        <v>114.574</v>
+        <v>12.955</v>
       </c>
       <c r="J3">
-        <v>1590.348</v>
+        <v>243.19399999999999</v>
       </c>
       <c r="K3">
-        <v>0</v>
+        <v>0.14099999999999999</v>
       </c>
       <c r="L3">
         <v>0</v>
       </c>
       <c r="M3">
-        <v>-2.512</v>
+        <v>-58.228999999999999</v>
       </c>
       <c r="N3">
-        <v>151.23099999999999</v>
+        <v>51.17</v>
       </c>
       <c r="O3">
-        <v>2121.41</v>
+        <v>471.90800000000002</v>
       </c>
       <c r="P3">
-        <v>1600.4870000000001</v>
+        <v>271.33499999999998</v>
       </c>
       <c r="Q3">
-        <v>91.39</v>
+        <v>0.85099999999999998</v>
       </c>
       <c r="R3">
-        <v>40633</v>
+        <v>36981</v>
       </c>
       <c r="S3">
         <v>0</v>
       </c>
       <c r="T3">
-        <v>1031.9359999999999</v>
+        <v>621.21900000000005</v>
       </c>
       <c r="U3">
-        <v>216.78700000000001</v>
+        <v>0</v>
       </c>
       <c r="V3">
-        <v>74.477999999999994</v>
+        <v>15.513</v>
       </c>
       <c r="W3">
-        <v>-65.116</v>
+        <v>-19.010999999999999</v>
       </c>
       <c r="X3">
-        <v>224.49</v>
+        <v>-12.797000000000001</v>
       </c>
       <c r="Y3">
         <v>0</v>
@@ -894,81 +1014,81 @@
         <v>0</v>
       </c>
       <c r="AA3">
-        <v>42.491999999999997</v>
+        <v>5.4009999999999998</v>
       </c>
     </row>
     <row r="4" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A4" s="1">
-        <v>40724</v>
+        <v>37072</v>
       </c>
       <c r="B4" t="s">
         <v>29</v>
       </c>
       <c r="C4">
-        <v>48.042999999999999</v>
+        <v>16.792999999999999</v>
       </c>
       <c r="D4">
-        <v>512.40599999999995</v>
+        <v>46.603000000000002</v>
       </c>
       <c r="E4">
-        <v>141.06800000000001</v>
+        <v>24.867999999999999</v>
       </c>
       <c r="F4">
-        <v>94.66</v>
+        <v>28.46</v>
       </c>
       <c r="G4">
-        <v>196.048</v>
+        <v>40.567999999999998</v>
       </c>
       <c r="H4">
-        <v>3055.67</v>
+        <v>1075.8340000000001</v>
       </c>
       <c r="I4">
-        <v>77.489999999999995</v>
+        <v>10.019</v>
       </c>
       <c r="J4">
-        <v>1513.9559999999999</v>
+        <v>264.09100000000001</v>
       </c>
       <c r="K4">
-        <v>0</v>
+        <v>1.1100000000000001</v>
       </c>
       <c r="L4">
         <v>0</v>
       </c>
       <c r="M4">
-        <v>-82.587999999999994</v>
+        <v>-7.31</v>
       </c>
       <c r="N4">
-        <v>111.458</v>
+        <v>24.244</v>
       </c>
       <c r="O4">
-        <v>2035.5360000000001</v>
+        <v>453.04700000000003</v>
       </c>
       <c r="P4">
-        <v>1524.4059999999999</v>
+        <v>265.20100000000002</v>
       </c>
       <c r="Q4">
-        <v>-182.19</v>
+        <v>-0.96899999999999997</v>
       </c>
       <c r="R4">
-        <v>40724</v>
+        <v>37072</v>
       </c>
       <c r="S4">
         <v>0</v>
       </c>
       <c r="T4">
-        <v>1020.134</v>
+        <v>622.78700000000003</v>
       </c>
       <c r="U4">
-        <v>34.597000000000001</v>
+        <v>0</v>
       </c>
       <c r="V4">
-        <v>49.503</v>
+        <v>21.227</v>
       </c>
       <c r="W4">
-        <v>-65.222999999999999</v>
+        <v>-18.428000000000001</v>
       </c>
       <c r="X4">
-        <v>-142.59899999999999</v>
+        <v>-20.088000000000001</v>
       </c>
       <c r="Y4">
         <v>0</v>
@@ -977,81 +1097,81 @@
         <v>0</v>
       </c>
       <c r="AA4">
-        <v>48.042999999999999</v>
+        <v>16.792999999999999</v>
       </c>
     </row>
     <row r="5" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A5" s="1">
-        <v>40816</v>
+        <v>37164</v>
       </c>
       <c r="B5" t="s">
         <v>30</v>
       </c>
       <c r="C5">
-        <v>30.120999999999999</v>
+        <v>8.4979999999999993</v>
       </c>
       <c r="D5">
-        <v>300.62</v>
+        <v>47.854999999999997</v>
       </c>
       <c r="E5">
-        <v>132.285</v>
+        <v>26.042000000000002</v>
       </c>
       <c r="F5">
-        <v>82.57</v>
+        <v>29.53</v>
       </c>
       <c r="G5">
-        <v>153.87899999999999</v>
+        <v>40.841999999999999</v>
       </c>
       <c r="H5">
-        <v>3172.4920000000002</v>
+        <v>1060.05</v>
       </c>
       <c r="I5">
-        <v>84.340999999999994</v>
+        <v>11.321999999999999</v>
       </c>
       <c r="J5">
-        <v>1316.383</v>
+        <v>259</v>
       </c>
       <c r="K5">
-        <v>0.47699999999999998</v>
+        <v>2.1360000000000001</v>
       </c>
       <c r="L5">
         <v>0</v>
       </c>
       <c r="M5">
-        <v>-2.7639999999999998</v>
+        <v>-1.091</v>
       </c>
       <c r="N5">
-        <v>346.67500000000001</v>
+        <v>28.062000000000001</v>
       </c>
       <c r="O5">
-        <v>2184.2280000000001</v>
+        <v>446.64800000000002</v>
       </c>
       <c r="P5">
-        <v>1552.135</v>
+        <v>265.13600000000002</v>
       </c>
       <c r="Q5">
-        <v>-35.073999999999998</v>
+        <v>-1.026</v>
       </c>
       <c r="R5">
-        <v>40816</v>
+        <v>37164</v>
       </c>
       <c r="S5">
         <v>0</v>
       </c>
       <c r="T5">
-        <v>988.26400000000001</v>
+        <v>613.40200000000004</v>
       </c>
       <c r="U5">
         <v>0</v>
       </c>
       <c r="V5">
-        <v>87.683000000000007</v>
+        <v>23.594999999999999</v>
       </c>
       <c r="W5">
-        <v>-65.349000000000004</v>
+        <v>-20.015999999999998</v>
       </c>
       <c r="X5">
-        <v>-40.512</v>
+        <v>-20.721</v>
       </c>
       <c r="Y5">
         <v>0</v>
@@ -1060,42 +1180,42 @@
         <v>0</v>
       </c>
       <c r="AA5">
-        <v>30.120999999999999</v>
+        <v>8.4979999999999993</v>
       </c>
     </row>
     <row r="6" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A6" s="1">
-        <v>40908</v>
+        <v>37256</v>
       </c>
       <c r="B6" t="s">
         <v>31</v>
       </c>
       <c r="C6">
-        <v>45.01</v>
+        <v>9.5790000000000006</v>
       </c>
       <c r="D6">
-        <v>468.137</v>
+        <v>49.765999999999998</v>
       </c>
       <c r="E6">
-        <v>145.673</v>
+        <v>24.178999999999998</v>
       </c>
       <c r="F6">
-        <v>85.533000000000001</v>
+        <v>33.110999999999997</v>
       </c>
       <c r="G6">
-        <v>174.14500000000001</v>
+        <v>37.993000000000002</v>
       </c>
       <c r="H6">
-        <v>3339.2020000000002</v>
+        <v>1297.5519999999999</v>
       </c>
       <c r="I6">
-        <v>141.452</v>
+        <v>16.806999999999999</v>
       </c>
       <c r="J6">
-        <v>1314.239</v>
+        <v>307.2</v>
       </c>
       <c r="K6">
-        <v>3.8149999999999999</v>
+        <v>0</v>
       </c>
       <c r="L6">
         <v>0</v>
@@ -1104,37 +1224,37 @@
         <v>0</v>
       </c>
       <c r="N6">
-        <v>517.80200000000002</v>
+        <v>35.494</v>
       </c>
       <c r="O6">
-        <v>2377.585</v>
+        <v>528.49400000000003</v>
       </c>
       <c r="P6">
-        <v>1643.567</v>
+        <v>315</v>
       </c>
       <c r="Q6">
-        <v>-0.19900000000000001</v>
+        <v>6.7</v>
       </c>
       <c r="R6">
-        <v>40908</v>
+        <v>37256</v>
       </c>
       <c r="S6">
-        <v>494</v>
+        <v>0</v>
       </c>
       <c r="T6">
-        <v>961.61699999999996</v>
+        <v>769.05799999999999</v>
       </c>
       <c r="U6">
-        <v>0</v>
+        <v>4.5640000000000001</v>
       </c>
       <c r="V6">
-        <v>73.873999999999995</v>
+        <v>31.26</v>
       </c>
       <c r="W6">
-        <v>-65.414000000000001</v>
+        <v>-20.338000000000001</v>
       </c>
       <c r="X6">
-        <v>24.344999999999999</v>
+        <v>201.43199999999999</v>
       </c>
       <c r="Y6">
         <v>0</v>
@@ -1143,39 +1263,39 @@
         <v>0</v>
       </c>
       <c r="AA6">
-        <v>45.01</v>
+        <v>9.5790000000000006</v>
       </c>
     </row>
     <row r="7" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A7" s="1">
-        <v>40999</v>
+        <v>37346</v>
       </c>
       <c r="B7" t="s">
         <v>32</v>
       </c>
       <c r="C7">
-        <v>32.6</v>
+        <v>16.754000000000001</v>
       </c>
       <c r="D7">
-        <v>475.5</v>
+        <v>56.54</v>
       </c>
       <c r="E7">
-        <v>150.77000000000001</v>
+        <v>29.321000000000002</v>
       </c>
       <c r="F7">
-        <v>106.3</v>
+        <v>36.945</v>
       </c>
       <c r="G7">
-        <v>158.79599999999999</v>
+        <v>44.616999999999997</v>
       </c>
       <c r="H7">
-        <v>3351.933</v>
+        <v>1290.479</v>
       </c>
       <c r="I7">
-        <v>116.17400000000001</v>
+        <v>14.28</v>
       </c>
       <c r="J7">
-        <v>1642.0609999999999</v>
+        <v>307.37799999999999</v>
       </c>
       <c r="K7">
         <v>0</v>
@@ -1184,40 +1304,40 @@
         <v>0</v>
       </c>
       <c r="M7">
-        <v>-2.7</v>
+        <v>0</v>
       </c>
       <c r="N7">
-        <v>200.81100000000001</v>
+        <v>37.26</v>
       </c>
       <c r="O7">
-        <v>2393.971</v>
+        <v>526.83799999999997</v>
       </c>
       <c r="P7">
-        <v>1704.7239999999999</v>
+        <v>319.27800000000002</v>
       </c>
       <c r="Q7">
-        <v>2.9</v>
+        <v>1.482</v>
       </c>
       <c r="R7">
-        <v>40999</v>
+        <v>37346</v>
       </c>
       <c r="S7">
         <v>0</v>
       </c>
       <c r="T7">
-        <v>957.96199999999999</v>
+        <v>763.64099999999996</v>
       </c>
       <c r="U7">
-        <v>2.2469999999999999</v>
+        <v>6.0460000000000003</v>
       </c>
       <c r="V7">
-        <v>65.3</v>
+        <v>21.149000000000001</v>
       </c>
       <c r="W7">
-        <v>-37.6</v>
+        <v>-23.288</v>
       </c>
       <c r="X7">
-        <v>24.8</v>
+        <v>-16.719000000000001</v>
       </c>
       <c r="Y7">
         <v>0</v>
@@ -1226,39 +1346,39 @@
         <v>0</v>
       </c>
       <c r="AA7">
-        <v>32.6</v>
+        <v>16.754000000000001</v>
       </c>
     </row>
     <row r="8" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A8" s="1">
-        <v>41090</v>
+        <v>37437</v>
       </c>
       <c r="B8" t="s">
         <v>33</v>
       </c>
       <c r="C8">
-        <v>80.400000000000006</v>
+        <v>18.600999999999999</v>
       </c>
       <c r="D8">
-        <v>870.9</v>
+        <v>55.292000000000002</v>
       </c>
       <c r="E8">
-        <v>289.20400000000001</v>
+        <v>24.15</v>
       </c>
       <c r="F8">
-        <v>108.8</v>
+        <v>34.268999999999998</v>
       </c>
       <c r="G8">
-        <v>432.18200000000002</v>
+        <v>31.55</v>
       </c>
       <c r="H8">
-        <v>8081.8530000000001</v>
+        <v>1266.8889999999999</v>
       </c>
       <c r="I8">
-        <v>245.125</v>
+        <v>6.4359999999999999</v>
       </c>
       <c r="J8">
-        <v>2353.0120000000002</v>
+        <v>250</v>
       </c>
       <c r="K8">
         <v>0</v>
@@ -1267,40 +1387,40 @@
         <v>0</v>
       </c>
       <c r="M8">
-        <v>-57.3</v>
+        <v>-4.2779999999999996</v>
       </c>
       <c r="N8">
-        <v>330.221</v>
+        <v>82.284000000000006</v>
       </c>
       <c r="O8">
-        <v>3811.3</v>
+        <v>507.48399999999998</v>
       </c>
       <c r="P8">
-        <v>2380.7220000000002</v>
+        <v>315</v>
       </c>
       <c r="Q8">
-        <v>0.8</v>
+        <v>-1.6279999999999999</v>
       </c>
       <c r="R8">
-        <v>41090</v>
+        <v>37437</v>
       </c>
       <c r="S8">
         <v>0</v>
       </c>
       <c r="T8">
-        <v>4270.5529999999999</v>
+        <v>759.40499999999997</v>
       </c>
       <c r="U8">
-        <v>2.9809999999999999</v>
+        <v>4.4180000000000001</v>
       </c>
       <c r="V8">
-        <v>24.1</v>
+        <v>32.889000000000003</v>
       </c>
       <c r="W8">
-        <v>-42.3</v>
+        <v>-23.814</v>
       </c>
       <c r="X8">
-        <v>99.7</v>
+        <v>-28.69</v>
       </c>
       <c r="Y8">
         <v>0</v>
@@ -1309,39 +1429,39 @@
         <v>0</v>
       </c>
       <c r="AA8">
-        <v>80.400000000000006</v>
+        <v>18.600999999999999</v>
       </c>
     </row>
     <row r="9" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A9" s="1">
-        <v>41182</v>
+        <v>37529</v>
       </c>
       <c r="B9" t="s">
         <v>34</v>
       </c>
       <c r="C9">
-        <v>30.6</v>
+        <v>12.19</v>
       </c>
       <c r="D9">
-        <v>815.4</v>
+        <v>54.719000000000001</v>
       </c>
       <c r="E9">
-        <v>294.16800000000001</v>
+        <v>24.867999999999999</v>
       </c>
       <c r="F9">
-        <v>128.80000000000001</v>
+        <v>31.190999999999999</v>
       </c>
       <c r="G9">
-        <v>482.16300000000001</v>
+        <v>33.161000000000001</v>
       </c>
       <c r="H9">
-        <v>8203.8269999999993</v>
+        <v>1252.6400000000001</v>
       </c>
       <c r="I9">
-        <v>305.73700000000002</v>
+        <v>12.483000000000001</v>
       </c>
       <c r="J9">
-        <v>2433.165</v>
+        <v>314.69099999999997</v>
       </c>
       <c r="K9">
         <v>0</v>
@@ -1350,40 +1470,40 @@
         <v>0</v>
       </c>
       <c r="M9">
-        <v>-0.8</v>
+        <v>-100.309</v>
       </c>
       <c r="N9">
-        <v>380.50400000000002</v>
+        <v>23.457999999999998</v>
       </c>
       <c r="O9">
-        <v>3951.308</v>
+        <v>506.34899999999999</v>
       </c>
       <c r="P9">
-        <v>2460.4209999999998</v>
+        <v>314.69099999999997</v>
       </c>
       <c r="Q9">
-        <v>22.4</v>
+        <v>0.89300000000000002</v>
       </c>
       <c r="R9">
-        <v>41182</v>
+        <v>37529</v>
       </c>
       <c r="S9">
         <v>0</v>
       </c>
       <c r="T9">
-        <v>4252.5190000000002</v>
+        <v>746.29100000000005</v>
       </c>
       <c r="U9">
-        <v>25.390999999999998</v>
+        <v>5.3109999999999999</v>
       </c>
       <c r="V9">
-        <v>130.9</v>
+        <v>28.26</v>
       </c>
       <c r="W9">
-        <v>-50.8</v>
+        <v>-24.189</v>
       </c>
       <c r="X9">
-        <v>30.2</v>
+        <v>-25.782</v>
       </c>
       <c r="Y9">
         <v>0</v>
@@ -1392,39 +1512,39 @@
         <v>0</v>
       </c>
       <c r="AA9">
-        <v>30.6</v>
+        <v>12.19</v>
       </c>
     </row>
     <row r="10" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A10" s="1">
-        <v>41274</v>
+        <v>37621</v>
       </c>
       <c r="B10" t="s">
         <v>35</v>
       </c>
       <c r="C10">
-        <v>81.5</v>
+        <v>11.991</v>
       </c>
       <c r="D10">
-        <v>1265.2</v>
+        <v>57.915999999999997</v>
       </c>
       <c r="E10">
-        <v>324</v>
+        <v>26.382999999999999</v>
       </c>
       <c r="F10">
-        <v>163.1</v>
+        <v>33.090000000000003</v>
       </c>
       <c r="G10">
-        <v>478</v>
+        <v>34.551000000000002</v>
       </c>
       <c r="H10">
-        <v>8284</v>
+        <v>1255.5619999999999</v>
       </c>
       <c r="I10">
-        <v>301</v>
+        <v>20.943999999999999</v>
       </c>
       <c r="J10">
-        <v>2543</v>
+        <v>322.959</v>
       </c>
       <c r="K10">
         <v>0</v>
@@ -1436,78 +1556,78 @@
         <v>0</v>
       </c>
       <c r="N10">
-        <v>412</v>
+        <v>32.433</v>
       </c>
       <c r="O10">
-        <v>4009</v>
+        <v>522.94500000000005</v>
       </c>
       <c r="P10">
-        <v>2555</v>
+        <v>326.25900000000001</v>
       </c>
       <c r="Q10">
-        <v>1.9</v>
+        <v>-1.052</v>
       </c>
       <c r="R10">
-        <v>41274</v>
+        <v>37621</v>
       </c>
       <c r="S10">
-        <v>758</v>
+        <v>0</v>
       </c>
       <c r="T10">
-        <v>4275</v>
+        <v>732.61699999999996</v>
       </c>
       <c r="U10">
-        <v>27</v>
+        <v>4.2590000000000003</v>
       </c>
       <c r="V10">
-        <v>139.69999999999999</v>
+        <v>24.68</v>
       </c>
       <c r="W10">
-        <v>-50.3</v>
+        <v>-24.495000000000001</v>
       </c>
       <c r="X10">
-        <v>59.3</v>
+        <v>-15.284000000000001</v>
       </c>
       <c r="Y10">
         <v>0</v>
       </c>
       <c r="Z10">
-        <v>-8</v>
+        <v>0</v>
       </c>
       <c r="AA10">
-        <v>81.5</v>
+        <v>11.991</v>
       </c>
     </row>
     <row r="11" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A11" s="1">
-        <v>41364</v>
+        <v>37711</v>
       </c>
       <c r="B11" t="s">
         <v>36</v>
       </c>
       <c r="C11">
-        <v>91</v>
+        <v>13.122999999999999</v>
       </c>
       <c r="D11">
-        <v>1249</v>
+        <v>58.216000000000001</v>
       </c>
       <c r="E11">
-        <v>368.4</v>
+        <v>24.808</v>
       </c>
       <c r="F11">
-        <v>196</v>
+        <v>33.905000000000001</v>
       </c>
       <c r="G11">
-        <v>511.5</v>
+        <v>34.664000000000001</v>
       </c>
       <c r="H11">
-        <v>8391.6</v>
+        <v>1274.914</v>
       </c>
       <c r="I11">
-        <v>407.6</v>
+        <v>22.905000000000001</v>
       </c>
       <c r="J11">
-        <v>2231.4</v>
+        <v>350.80700000000002</v>
       </c>
       <c r="K11">
         <v>0</v>
@@ -1516,81 +1636,81 @@
         <v>0</v>
       </c>
       <c r="M11">
-        <v>-325</v>
+        <v>0</v>
       </c>
       <c r="N11">
-        <v>468.7</v>
+        <v>40.438000000000002</v>
       </c>
       <c r="O11">
-        <v>3747.5</v>
+        <v>550.04499999999996</v>
       </c>
       <c r="P11">
-        <v>2243.5</v>
+        <v>357.45699999999999</v>
       </c>
       <c r="Q11">
-        <v>19</v>
+        <v>1.4379999999999999</v>
       </c>
       <c r="R11">
-        <v>41364</v>
+        <v>37711</v>
       </c>
       <c r="S11">
         <v>0</v>
       </c>
       <c r="T11">
-        <v>4644.1000000000004</v>
+        <v>724.86900000000003</v>
       </c>
       <c r="U11">
-        <v>46.4</v>
+        <v>5.6970000000000001</v>
       </c>
       <c r="V11">
-        <v>232</v>
+        <v>27.064</v>
       </c>
       <c r="W11">
-        <v>-52</v>
+        <v>-24.605</v>
       </c>
       <c r="X11">
-        <v>-45</v>
+        <v>11.375</v>
       </c>
       <c r="Y11">
         <v>0</v>
       </c>
       <c r="Z11">
-        <v>-5</v>
+        <v>0</v>
       </c>
       <c r="AA11">
-        <v>91</v>
+        <v>13.122999999999999</v>
       </c>
     </row>
     <row r="12" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A12" s="1">
-        <v>41455</v>
+        <v>37802</v>
       </c>
       <c r="B12" t="s">
         <v>37</v>
       </c>
       <c r="C12">
-        <v>93</v>
+        <v>14.84</v>
       </c>
       <c r="D12">
-        <v>1175</v>
+        <v>57.03</v>
       </c>
       <c r="E12">
-        <v>375.6</v>
+        <v>31.414999999999999</v>
       </c>
       <c r="F12">
-        <v>172</v>
+        <v>33.572000000000003</v>
       </c>
       <c r="G12">
-        <v>497.5</v>
+        <v>35.360999999999997</v>
       </c>
       <c r="H12">
-        <v>8544.9</v>
+        <v>1538.673</v>
       </c>
       <c r="I12">
-        <v>407.8</v>
+        <v>14.064</v>
       </c>
       <c r="J12">
-        <v>2073.5</v>
+        <v>356.06900000000002</v>
       </c>
       <c r="K12">
         <v>0</v>
@@ -1599,81 +1719,81 @@
         <v>0</v>
       </c>
       <c r="M12">
-        <v>-176</v>
+        <v>0</v>
       </c>
       <c r="N12">
-        <v>721.7</v>
+        <v>32.76</v>
       </c>
       <c r="O12">
-        <v>3857.5</v>
+        <v>604.12900000000002</v>
       </c>
       <c r="P12">
-        <v>2334.9</v>
+        <v>364.97399999999999</v>
       </c>
       <c r="Q12">
-        <v>-36</v>
+        <v>-3.8479999999999999</v>
       </c>
       <c r="R12">
-        <v>41455</v>
+        <v>37802</v>
       </c>
       <c r="S12">
         <v>0</v>
       </c>
       <c r="T12">
-        <v>4687.3999999999996</v>
+        <v>934.54399999999998</v>
       </c>
       <c r="U12">
-        <v>9.8000000000000007</v>
+        <v>1.849</v>
       </c>
       <c r="V12">
-        <v>151</v>
+        <v>11.384</v>
       </c>
       <c r="W12">
-        <v>-54</v>
+        <v>-24.885999999999999</v>
       </c>
       <c r="X12">
-        <v>50</v>
+        <v>202.15700000000001</v>
       </c>
       <c r="Y12">
         <v>0</v>
       </c>
       <c r="Z12">
-        <v>-3</v>
+        <v>0</v>
       </c>
       <c r="AA12">
-        <v>93</v>
+        <v>14.84</v>
       </c>
     </row>
     <row r="13" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A13" s="1">
-        <v>41547</v>
+        <v>37894</v>
       </c>
       <c r="B13" t="s">
         <v>38</v>
       </c>
       <c r="C13">
-        <v>72</v>
+        <v>16.550999999999998</v>
       </c>
       <c r="D13">
-        <v>1300</v>
+        <v>61.561999999999998</v>
       </c>
       <c r="E13">
-        <v>395.5</v>
+        <v>30.163</v>
       </c>
       <c r="F13">
-        <v>183</v>
+        <v>38.497</v>
       </c>
       <c r="G13">
-        <v>560.1</v>
+        <v>35.796999999999997</v>
       </c>
       <c r="H13">
-        <v>8802.5</v>
+        <v>1546.3430000000001</v>
       </c>
       <c r="I13">
-        <v>433.5</v>
+        <v>27.71</v>
       </c>
       <c r="J13">
-        <v>2000.1</v>
+        <v>369.86900000000003</v>
       </c>
       <c r="K13">
         <v>0</v>
@@ -1682,81 +1802,81 @@
         <v>0</v>
       </c>
       <c r="M13">
-        <v>-117</v>
+        <v>-0.29799999999999999</v>
       </c>
       <c r="N13">
-        <v>751</v>
+        <v>37.746000000000002</v>
       </c>
       <c r="O13">
-        <v>3848.2</v>
+        <v>615.51499999999999</v>
       </c>
       <c r="P13">
-        <v>2261.9</v>
+        <v>369.86900000000003</v>
       </c>
       <c r="Q13">
-        <v>5</v>
+        <v>1.335</v>
       </c>
       <c r="R13">
-        <v>41547</v>
+        <v>37894</v>
       </c>
       <c r="S13">
         <v>0</v>
       </c>
       <c r="T13">
-        <v>4954.3</v>
+        <v>930.82799999999997</v>
       </c>
       <c r="U13">
-        <v>15.5</v>
+        <v>3.1840000000000002</v>
       </c>
       <c r="V13">
-        <v>94</v>
+        <v>28.561</v>
       </c>
       <c r="W13">
-        <v>-54</v>
+        <v>-25.341999999999999</v>
       </c>
       <c r="X13">
-        <v>118</v>
+        <v>-6.4969999999999999</v>
       </c>
       <c r="Y13">
         <v>0</v>
       </c>
       <c r="Z13">
-        <v>-2</v>
+        <v>0</v>
       </c>
       <c r="AA13">
-        <v>72</v>
+        <v>16.550999999999998</v>
       </c>
     </row>
     <row r="14" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A14" s="1">
-        <v>41639</v>
+        <v>37986</v>
       </c>
       <c r="B14" t="s">
         <v>39</v>
       </c>
       <c r="C14">
-        <v>95</v>
+        <v>3.4409999999999998</v>
       </c>
       <c r="D14">
-        <v>1282</v>
+        <v>66.266000000000005</v>
       </c>
       <c r="E14">
-        <v>419</v>
+        <v>31.780999999999999</v>
       </c>
       <c r="F14">
-        <v>236</v>
+        <v>40.948999999999998</v>
       </c>
       <c r="G14">
-        <v>648</v>
+        <v>36.984000000000002</v>
       </c>
       <c r="H14">
-        <v>9142</v>
+        <v>1582.8489999999999</v>
       </c>
       <c r="I14">
-        <v>359</v>
+        <v>21.065999999999999</v>
       </c>
       <c r="J14">
-        <v>2018</v>
+        <v>546.76400000000001</v>
       </c>
       <c r="K14">
         <v>0</v>
@@ -1768,78 +1888,78 @@
         <v>0</v>
       </c>
       <c r="N14">
-        <v>818</v>
+        <v>163.708</v>
       </c>
       <c r="O14">
-        <v>3971</v>
+        <v>927.8</v>
       </c>
       <c r="P14">
-        <v>2283</v>
+        <v>680.76400000000001</v>
       </c>
       <c r="Q14">
-        <v>36</v>
+        <v>8.2000000000000003E-2</v>
       </c>
       <c r="R14">
-        <v>41639</v>
+        <v>37986</v>
       </c>
       <c r="S14">
-        <v>904</v>
+        <v>0</v>
       </c>
       <c r="T14">
-        <v>5171</v>
+        <v>655.04899999999998</v>
       </c>
       <c r="U14">
-        <v>51</v>
+        <v>3.266</v>
       </c>
       <c r="V14">
-        <v>208</v>
+        <v>14.771000000000001</v>
       </c>
       <c r="W14">
-        <v>0</v>
+        <v>-25.721</v>
       </c>
       <c r="X14">
-        <v>110</v>
+        <v>27.689</v>
       </c>
       <c r="Y14">
         <v>0</v>
       </c>
       <c r="Z14">
-        <v>-3</v>
+        <v>0</v>
       </c>
       <c r="AA14">
-        <v>95</v>
+        <v>3.4409999999999998</v>
       </c>
     </row>
     <row r="15" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A15" s="1">
-        <v>41729</v>
+        <v>38077</v>
       </c>
       <c r="B15" t="s">
         <v>40</v>
       </c>
       <c r="C15">
-        <v>147</v>
+        <v>18.600999999999999</v>
       </c>
       <c r="D15">
-        <v>1759</v>
+        <v>69.025999999999996</v>
       </c>
       <c r="E15">
-        <v>432</v>
+        <v>32.268000000000001</v>
       </c>
       <c r="F15">
-        <v>300</v>
+        <v>42.484999999999999</v>
       </c>
       <c r="G15">
-        <v>729</v>
+        <v>35.225999999999999</v>
       </c>
       <c r="H15">
-        <v>9498</v>
+        <v>1584.713</v>
       </c>
       <c r="I15">
-        <v>460</v>
+        <v>14.398999999999999</v>
       </c>
       <c r="J15">
-        <v>1881</v>
+        <v>288.91000000000003</v>
       </c>
       <c r="K15">
         <v>0</v>
@@ -1848,250 +1968,250 @@
         <v>0</v>
       </c>
       <c r="M15">
-        <v>-50</v>
+        <v>0</v>
       </c>
       <c r="N15">
-        <v>809</v>
+        <v>169.35900000000001</v>
       </c>
       <c r="O15">
-        <v>3875</v>
+        <v>663.78499999999997</v>
       </c>
       <c r="P15">
-        <v>2143</v>
+        <v>435.11</v>
       </c>
       <c r="Q15">
-        <v>102</v>
+        <v>-0.308</v>
       </c>
       <c r="R15">
-        <v>41729</v>
+        <v>38077</v>
       </c>
       <c r="S15">
         <v>0</v>
       </c>
       <c r="T15">
-        <v>5623</v>
+        <v>920.928</v>
       </c>
       <c r="U15">
-        <v>153</v>
+        <v>2.9580000000000002</v>
       </c>
       <c r="V15">
-        <v>261</v>
+        <v>34.048999999999999</v>
       </c>
       <c r="W15">
-        <v>-62</v>
+        <v>-26.07</v>
       </c>
       <c r="X15">
-        <v>134</v>
+        <v>1.742</v>
       </c>
       <c r="Y15">
         <v>0</v>
       </c>
       <c r="Z15">
-        <v>-2</v>
+        <v>0</v>
       </c>
       <c r="AA15">
-        <v>147</v>
+        <v>18.600999999999999</v>
       </c>
     </row>
     <row r="16" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A16" s="1">
-        <v>41820</v>
+        <v>38168</v>
       </c>
       <c r="B16" t="s">
         <v>41</v>
       </c>
       <c r="C16">
-        <v>77</v>
+        <v>11.336</v>
       </c>
       <c r="D16">
-        <v>1606</v>
+        <v>67.283000000000001</v>
       </c>
       <c r="E16">
-        <v>422</v>
+        <v>26.952999999999999</v>
       </c>
       <c r="F16">
-        <v>231</v>
+        <v>39.555999999999997</v>
       </c>
       <c r="G16">
-        <v>909</v>
+        <v>26.952999999999999</v>
       </c>
       <c r="H16">
-        <v>9892</v>
+        <v>1567.2750000000001</v>
       </c>
       <c r="I16">
-        <v>442</v>
+        <v>6.6719999999999997</v>
       </c>
       <c r="J16">
-        <v>2417</v>
+        <v>431.899</v>
       </c>
       <c r="K16">
-        <v>0</v>
+        <v>4.7759999999999998</v>
       </c>
       <c r="L16">
         <v>0</v>
       </c>
       <c r="M16">
-        <v>-247</v>
+        <v>-110.4</v>
       </c>
       <c r="N16">
-        <v>538</v>
+        <v>24.277000000000001</v>
       </c>
       <c r="O16">
-        <v>4167</v>
+        <v>653.88599999999997</v>
       </c>
       <c r="P16">
-        <v>2421</v>
+        <v>440.67500000000001</v>
       </c>
       <c r="Q16">
-        <v>134</v>
+        <v>-7.734</v>
       </c>
       <c r="R16">
-        <v>41820</v>
+        <v>38168</v>
       </c>
       <c r="S16">
         <v>0</v>
       </c>
       <c r="T16">
-        <v>5725</v>
+        <v>913.38900000000001</v>
       </c>
       <c r="U16">
-        <v>287</v>
+        <v>0</v>
       </c>
       <c r="V16">
-        <v>155</v>
+        <v>22.603000000000002</v>
       </c>
       <c r="W16">
-        <v>-65</v>
+        <v>-26.350999999999999</v>
       </c>
       <c r="X16">
-        <v>286</v>
+        <v>-20.844000000000001</v>
       </c>
       <c r="Y16">
         <v>0</v>
       </c>
       <c r="Z16">
-        <v>-3</v>
+        <v>0</v>
       </c>
       <c r="AA16">
-        <v>77</v>
+        <v>11.336</v>
       </c>
     </row>
     <row r="17" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A17" s="1">
-        <v>41912</v>
+        <v>38260</v>
       </c>
       <c r="B17" t="s">
         <v>42</v>
       </c>
       <c r="C17">
-        <v>75</v>
+        <v>15.112</v>
       </c>
       <c r="D17">
-        <v>1445</v>
+        <v>70.141999999999996</v>
       </c>
       <c r="E17">
-        <v>421</v>
+        <v>26.074999999999999</v>
       </c>
       <c r="F17">
-        <v>209</v>
+        <v>44.661000000000001</v>
       </c>
       <c r="G17">
-        <v>957</v>
+        <v>26.074999999999999</v>
       </c>
       <c r="H17">
-        <v>10215</v>
+        <v>1554.8130000000001</v>
       </c>
       <c r="I17">
-        <v>468</v>
+        <v>11.178000000000001</v>
       </c>
       <c r="J17">
-        <v>2367</v>
+        <v>432.08199999999999</v>
       </c>
       <c r="K17">
-        <v>0</v>
+        <v>1.8089999999999999</v>
       </c>
       <c r="L17">
         <v>0</v>
       </c>
       <c r="M17">
-        <v>-3</v>
+        <v>-3.4279999999999999</v>
       </c>
       <c r="N17">
-        <v>572</v>
+        <v>22.338000000000001</v>
       </c>
       <c r="O17">
-        <v>4172</v>
+        <v>645.39300000000003</v>
       </c>
       <c r="P17">
-        <v>2371</v>
+        <v>434.32799999999997</v>
       </c>
       <c r="Q17">
-        <v>42</v>
+        <v>2.9670000000000001</v>
       </c>
       <c r="R17">
-        <v>41912</v>
+        <v>38260</v>
       </c>
       <c r="S17">
         <v>0</v>
       </c>
       <c r="T17">
-        <v>6043</v>
+        <v>909.42</v>
       </c>
       <c r="U17">
-        <v>329</v>
+        <v>0</v>
       </c>
       <c r="V17">
-        <v>188</v>
+        <v>33.368000000000002</v>
       </c>
       <c r="W17">
-        <v>-69</v>
+        <v>-26.56</v>
       </c>
       <c r="X17">
-        <v>185</v>
+        <v>-22.423999999999999</v>
       </c>
       <c r="Y17">
         <v>0</v>
       </c>
       <c r="Z17">
-        <v>-2</v>
+        <v>0</v>
       </c>
       <c r="AA17">
-        <v>75</v>
+        <v>15.112</v>
       </c>
     </row>
     <row r="18" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A18" s="1">
-        <v>42004</v>
+        <v>38352</v>
       </c>
       <c r="B18" t="s">
         <v>43</v>
       </c>
       <c r="C18">
-        <v>84</v>
+        <v>15.374000000000001</v>
       </c>
       <c r="D18">
-        <v>1259</v>
+        <v>72.671999999999997</v>
       </c>
       <c r="E18">
-        <v>154</v>
+        <v>26.431999999999999</v>
       </c>
       <c r="F18">
-        <v>112</v>
+        <v>47.393000000000001</v>
       </c>
       <c r="G18">
-        <v>683</v>
+        <v>26.431999999999999</v>
       </c>
       <c r="H18">
-        <v>11262</v>
+        <v>1548.9</v>
       </c>
       <c r="I18">
-        <v>444</v>
+        <v>12.792</v>
       </c>
       <c r="J18">
-        <v>2863</v>
+        <v>682.529</v>
       </c>
       <c r="K18">
-        <v>0</v>
+        <v>2.9710000000000001</v>
       </c>
       <c r="L18">
         <v>0</v>
@@ -2100,78 +2220,78 @@
         <v>0</v>
       </c>
       <c r="N18">
-        <v>705</v>
+        <v>28.292000000000002</v>
       </c>
       <c r="O18">
-        <v>4926</v>
+        <v>893.85</v>
       </c>
       <c r="P18">
-        <v>2869</v>
+        <v>689.02200000000005</v>
       </c>
       <c r="Q18">
-        <v>-276</v>
+        <v>-1.1619999999999999</v>
       </c>
       <c r="R18">
-        <v>42004</v>
+        <v>38352</v>
       </c>
       <c r="S18">
-        <v>1111</v>
+        <v>0</v>
       </c>
       <c r="T18">
-        <v>6336</v>
+        <v>655.04999999999995</v>
       </c>
       <c r="U18">
-        <v>53</v>
+        <v>0</v>
       </c>
       <c r="V18">
-        <v>196</v>
+        <v>27.561</v>
       </c>
       <c r="W18">
-        <v>-73</v>
+        <v>-26.846</v>
       </c>
       <c r="X18">
-        <v>434</v>
+        <v>-16.119</v>
       </c>
       <c r="Y18">
         <v>0</v>
       </c>
       <c r="Z18">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="AA18">
-        <v>84</v>
+        <v>15.374000000000001</v>
       </c>
     </row>
     <row r="19" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A19" s="1">
-        <v>42094</v>
+        <v>38442</v>
       </c>
       <c r="B19" t="s">
         <v>44</v>
       </c>
       <c r="C19">
-        <v>120</v>
+        <v>14.553000000000001</v>
       </c>
       <c r="D19">
-        <v>1154</v>
+        <v>69.658000000000001</v>
       </c>
       <c r="E19">
-        <v>443</v>
+        <v>26.895</v>
       </c>
       <c r="F19">
-        <v>212</v>
+        <v>44.685000000000002</v>
       </c>
       <c r="G19">
-        <v>630</v>
+        <v>28.079000000000001</v>
       </c>
       <c r="H19">
-        <v>11738</v>
+        <v>1540.971</v>
       </c>
       <c r="I19">
-        <v>529</v>
+        <v>20.367999999999999</v>
       </c>
       <c r="J19">
-        <v>3272</v>
+        <v>659.39599999999996</v>
       </c>
       <c r="K19">
         <v>0</v>
@@ -2180,250 +2300,250 @@
         <v>0</v>
       </c>
       <c r="M19">
-        <v>-461</v>
+        <v>-4.3879999999999999</v>
       </c>
       <c r="N19">
-        <v>619</v>
+        <v>46.16</v>
       </c>
       <c r="O19">
-        <v>5334</v>
+        <v>885.279</v>
       </c>
       <c r="P19">
-        <v>3276</v>
+        <v>676.077</v>
       </c>
       <c r="Q19">
-        <v>-11</v>
+        <v>4.1550000000000002</v>
       </c>
       <c r="R19">
-        <v>42094</v>
+        <v>38442</v>
       </c>
       <c r="S19">
         <v>0</v>
       </c>
       <c r="T19">
-        <v>6404</v>
+        <v>655.69200000000001</v>
       </c>
       <c r="U19">
-        <v>42</v>
+        <v>1.1839999999999999</v>
       </c>
       <c r="V19">
-        <v>120</v>
+        <v>36.6</v>
       </c>
       <c r="W19">
-        <v>-72</v>
+        <v>-27.138000000000002</v>
       </c>
       <c r="X19">
-        <v>347</v>
+        <v>-23.780999999999999</v>
       </c>
       <c r="Y19">
         <v>0</v>
       </c>
       <c r="Z19">
-        <v>-19</v>
+        <v>0</v>
       </c>
       <c r="AA19">
-        <v>120</v>
+        <v>14.553000000000001</v>
       </c>
     </row>
     <row r="20" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A20" s="1">
-        <v>42185</v>
+        <v>38533</v>
       </c>
       <c r="B20" t="s">
         <v>45</v>
       </c>
       <c r="C20">
-        <v>43</v>
+        <v>14.372999999999999</v>
       </c>
       <c r="D20">
-        <v>1213</v>
+        <v>70.12</v>
       </c>
       <c r="E20">
-        <v>453</v>
+        <v>24.568000000000001</v>
       </c>
       <c r="F20">
-        <v>200</v>
+        <v>45.356999999999999</v>
       </c>
       <c r="G20">
-        <v>767</v>
+        <v>24.568000000000001</v>
       </c>
       <c r="H20">
-        <v>12167</v>
+        <v>1526.34</v>
       </c>
       <c r="I20">
-        <v>502</v>
+        <v>14.694000000000001</v>
       </c>
       <c r="J20">
-        <v>3534</v>
+        <v>652.64599999999996</v>
       </c>
       <c r="K20">
-        <v>0</v>
+        <v>6.7869999999999999</v>
       </c>
       <c r="L20">
         <v>0</v>
       </c>
       <c r="M20">
-        <v>-462</v>
+        <v>-3.3180000000000001</v>
       </c>
       <c r="N20">
-        <v>579</v>
+        <v>48.636000000000003</v>
       </c>
       <c r="O20">
-        <v>5566</v>
+        <v>873.78399999999999</v>
       </c>
       <c r="P20">
-        <v>3539</v>
+        <v>677.40499999999997</v>
       </c>
       <c r="Q20">
-        <v>162</v>
+        <v>-7.9710000000000001</v>
       </c>
       <c r="R20">
-        <v>42185</v>
+        <v>38533</v>
       </c>
       <c r="S20">
         <v>0</v>
       </c>
       <c r="T20">
-        <v>6601</v>
+        <v>652.55600000000004</v>
       </c>
       <c r="U20">
-        <v>204</v>
+        <v>0</v>
       </c>
       <c r="V20">
-        <v>209</v>
+        <v>23.984000000000002</v>
       </c>
       <c r="W20">
-        <v>-69</v>
+        <v>-27.401</v>
       </c>
       <c r="X20">
-        <v>412</v>
+        <v>-22.896000000000001</v>
       </c>
       <c r="Y20">
         <v>0</v>
       </c>
       <c r="Z20">
-        <v>-5</v>
+        <v>0</v>
       </c>
       <c r="AA20">
-        <v>43</v>
+        <v>14.372999999999999</v>
       </c>
     </row>
     <row r="21" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A21" s="1">
-        <v>42277</v>
+        <v>38625</v>
       </c>
       <c r="B21" t="s">
         <v>46</v>
       </c>
       <c r="C21">
-        <v>113</v>
+        <v>19.777999999999999</v>
       </c>
       <c r="D21">
-        <v>1026</v>
+        <v>73.099999999999994</v>
       </c>
       <c r="E21">
-        <v>482</v>
+        <v>27.596</v>
       </c>
       <c r="F21">
-        <v>196</v>
+        <v>48.62</v>
       </c>
       <c r="G21">
-        <v>642</v>
+        <v>27.596</v>
       </c>
       <c r="H21">
-        <v>12497</v>
+        <v>1541.9549999999999</v>
       </c>
       <c r="I21">
-        <v>540</v>
+        <v>20.774999999999999</v>
       </c>
       <c r="J21">
-        <v>3498</v>
+        <v>602.55799999999999</v>
       </c>
       <c r="K21">
-        <v>0</v>
+        <v>2.5539999999999998</v>
       </c>
       <c r="L21">
         <v>0</v>
       </c>
       <c r="M21">
-        <v>-1</v>
+        <v>-0.437</v>
       </c>
       <c r="N21">
-        <v>770</v>
+        <v>47.302999999999997</v>
       </c>
       <c r="O21">
-        <v>5731</v>
+        <v>814.59100000000001</v>
       </c>
       <c r="P21">
-        <v>3647</v>
+        <v>619.29200000000003</v>
       </c>
       <c r="Q21">
-        <v>-160</v>
+        <v>4.2329999999999997</v>
       </c>
       <c r="R21">
-        <v>42277</v>
+        <v>38625</v>
       </c>
       <c r="S21">
         <v>0</v>
       </c>
       <c r="T21">
-        <v>6766</v>
+        <v>727.36400000000003</v>
       </c>
       <c r="U21">
-        <v>44</v>
+        <v>0</v>
       </c>
       <c r="V21">
-        <v>187</v>
+        <v>34.259</v>
       </c>
       <c r="W21">
-        <v>-76</v>
+        <v>-28.489000000000001</v>
       </c>
       <c r="X21">
-        <v>130</v>
+        <v>1.7609999999999999</v>
       </c>
       <c r="Y21">
         <v>0</v>
       </c>
       <c r="Z21">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="AA21">
-        <v>113</v>
+        <v>19.777999999999999</v>
       </c>
     </row>
     <row r="22" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A22" s="1">
-        <v>42369</v>
+        <v>38717</v>
       </c>
       <c r="B22" t="s">
         <v>47</v>
       </c>
       <c r="C22">
-        <v>130</v>
+        <v>21.704999999999998</v>
       </c>
       <c r="D22">
-        <v>1242</v>
+        <v>77.644000000000005</v>
       </c>
       <c r="E22">
-        <v>111</v>
+        <v>31.012</v>
       </c>
       <c r="F22">
-        <v>224</v>
+        <v>49.124000000000002</v>
       </c>
       <c r="G22">
-        <v>642</v>
+        <v>31.012</v>
       </c>
       <c r="H22">
-        <v>12902</v>
+        <v>1559.1189999999999</v>
       </c>
       <c r="I22">
-        <v>373</v>
+        <v>18.489000000000001</v>
       </c>
       <c r="J22">
-        <v>3323</v>
+        <v>606.13400000000001</v>
       </c>
       <c r="K22">
-        <v>0</v>
+        <v>7.3109999999999999</v>
       </c>
       <c r="L22">
         <v>0</v>
@@ -2432,78 +2552,78 @@
         <v>0</v>
       </c>
       <c r="N22">
-        <v>605</v>
+        <v>51.734000000000002</v>
       </c>
       <c r="O22">
-        <v>5478</v>
+        <v>815.50699999999995</v>
       </c>
       <c r="P22">
-        <v>3331</v>
+        <v>629.41300000000001</v>
       </c>
       <c r="Q22">
-        <v>-16</v>
+        <v>-4.7569999999999997</v>
       </c>
       <c r="R22">
-        <v>42369</v>
+        <v>38717</v>
       </c>
       <c r="S22">
-        <v>1274</v>
+        <v>328</v>
       </c>
       <c r="T22">
-        <v>7424</v>
+        <v>743.61199999999997</v>
       </c>
       <c r="U22">
-        <v>28</v>
+        <v>0</v>
       </c>
       <c r="V22">
-        <v>285</v>
+        <v>17.516999999999999</v>
       </c>
       <c r="W22">
-        <v>-77</v>
+        <v>-29.495000000000001</v>
       </c>
       <c r="X22">
-        <v>183</v>
+        <v>7.9000000000000001E-2</v>
       </c>
       <c r="Y22">
         <v>0</v>
       </c>
       <c r="Z22">
-        <v>-2</v>
+        <v>0</v>
       </c>
       <c r="AA22">
-        <v>130</v>
+        <v>21.704999999999998</v>
       </c>
     </row>
     <row r="23" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A23" s="1">
-        <v>42460</v>
+        <v>38807</v>
       </c>
       <c r="B23" t="s">
         <v>48</v>
       </c>
       <c r="C23">
-        <v>102</v>
+        <v>20.149999999999999</v>
       </c>
       <c r="D23">
-        <v>1017</v>
+        <v>81.506</v>
       </c>
       <c r="E23">
-        <v>459</v>
+        <v>28.166</v>
       </c>
       <c r="F23">
-        <v>238</v>
+        <v>51.933999999999997</v>
       </c>
       <c r="G23">
-        <v>803</v>
+        <v>28.585000000000001</v>
       </c>
       <c r="H23">
-        <v>13448</v>
+        <v>1587.759</v>
       </c>
       <c r="I23">
-        <v>501</v>
+        <v>22.802</v>
       </c>
       <c r="J23">
-        <v>3292</v>
+        <v>580.04100000000005</v>
       </c>
       <c r="K23">
         <v>0</v>
@@ -2512,123 +2632,123 @@
         <v>0</v>
       </c>
       <c r="M23">
-        <v>-25</v>
+        <v>0</v>
       </c>
       <c r="N23">
-        <v>599</v>
+        <v>45.767000000000003</v>
       </c>
       <c r="O23">
-        <v>5508</v>
+        <v>786.57299999999998</v>
       </c>
       <c r="P23">
-        <v>3298</v>
+        <v>591.62300000000005</v>
       </c>
       <c r="Q23">
-        <v>218</v>
+        <v>7.73</v>
       </c>
       <c r="R23">
-        <v>42460</v>
+        <v>38807</v>
       </c>
       <c r="S23">
         <v>0</v>
       </c>
       <c r="T23">
-        <v>7940</v>
+        <v>801.18600000000004</v>
       </c>
       <c r="U23">
-        <v>246</v>
+        <v>0.41899999999999998</v>
       </c>
       <c r="V23">
-        <v>271</v>
+        <v>44.264000000000003</v>
       </c>
       <c r="W23">
-        <v>-78</v>
+        <v>-32.154000000000003</v>
       </c>
       <c r="X23">
-        <v>390</v>
+        <v>4.6559999999999997</v>
       </c>
       <c r="Y23">
         <v>0</v>
       </c>
       <c r="Z23">
-        <v>-2</v>
+        <v>0</v>
       </c>
       <c r="AA23">
-        <v>102</v>
+        <v>20.149999999999999</v>
       </c>
     </row>
     <row r="24" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A24" s="1">
-        <v>42551</v>
+        <v>38898</v>
       </c>
       <c r="B24" t="s">
         <v>49</v>
       </c>
       <c r="C24">
-        <v>113</v>
+        <v>16.940000000000001</v>
       </c>
       <c r="D24">
-        <v>1027</v>
+        <v>83.498999999999995</v>
       </c>
       <c r="E24">
-        <v>392</v>
+        <v>34.558</v>
       </c>
       <c r="F24">
-        <v>270</v>
+        <v>53.191000000000003</v>
       </c>
       <c r="G24">
-        <v>540</v>
+        <v>34.558</v>
       </c>
       <c r="H24">
-        <v>14145</v>
+        <v>1612.7750000000001</v>
       </c>
       <c r="I24">
-        <v>485</v>
+        <v>30.567</v>
       </c>
       <c r="J24">
-        <v>3614</v>
+        <v>563.125</v>
       </c>
       <c r="K24">
-        <v>0</v>
+        <v>4.3810000000000002</v>
       </c>
       <c r="L24">
         <v>0</v>
       </c>
       <c r="M24">
-        <v>-2</v>
+        <v>-1.3759999999999999</v>
       </c>
       <c r="N24">
-        <v>611</v>
+        <v>80.465999999999994</v>
       </c>
       <c r="O24">
-        <v>5925</v>
+        <v>798.08699999999999</v>
       </c>
       <c r="P24">
-        <v>3620</v>
+        <v>601.43100000000004</v>
       </c>
       <c r="Q24">
-        <v>-226</v>
+        <v>-4.8</v>
       </c>
       <c r="R24">
-        <v>42551</v>
+        <v>38898</v>
       </c>
       <c r="S24">
         <v>0</v>
       </c>
       <c r="T24">
-        <v>8220</v>
+        <v>814.68799999999999</v>
       </c>
       <c r="U24">
-        <v>20</v>
+        <v>0</v>
       </c>
       <c r="V24">
-        <v>273</v>
+        <v>26.055</v>
       </c>
       <c r="W24">
-        <v>-81</v>
+        <v>-34.356000000000002</v>
       </c>
       <c r="X24">
-        <v>485</v>
+        <v>2.1709999999999998</v>
       </c>
       <c r="Y24">
         <v>0</v>
@@ -2637,39 +2757,39 @@
         <v>0</v>
       </c>
       <c r="AA24">
-        <v>113</v>
+        <v>16.940000000000001</v>
       </c>
     </row>
     <row r="25" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A25" s="1">
-        <v>42643</v>
+        <v>38990</v>
       </c>
       <c r="B25" t="s">
         <v>50</v>
       </c>
       <c r="C25">
-        <v>120</v>
+        <v>24.562999999999999</v>
       </c>
       <c r="D25">
-        <v>970</v>
+        <v>85.718999999999994</v>
       </c>
       <c r="E25">
-        <v>397</v>
+        <v>40.128999999999998</v>
       </c>
       <c r="F25">
-        <v>246</v>
+        <v>56.155000000000001</v>
       </c>
       <c r="G25">
-        <v>607</v>
+        <v>66.835999999999999</v>
       </c>
       <c r="H25">
-        <v>14606</v>
+        <v>1651.1669999999999</v>
       </c>
       <c r="I25">
-        <v>632</v>
+        <v>27.359000000000002</v>
       </c>
       <c r="J25">
-        <v>3818</v>
+        <v>602.86300000000006</v>
       </c>
       <c r="K25">
         <v>0</v>
@@ -2678,40 +2798,40 @@
         <v>0</v>
       </c>
       <c r="M25">
-        <v>-299</v>
+        <v>-166.40100000000001</v>
       </c>
       <c r="N25">
-        <v>755</v>
+        <v>62.445999999999998</v>
       </c>
       <c r="O25">
-        <v>6349</v>
+        <v>816.86500000000001</v>
       </c>
       <c r="P25">
-        <v>3824</v>
+        <v>625.524</v>
       </c>
       <c r="Q25">
-        <v>20</v>
+        <v>31.088000000000001</v>
       </c>
       <c r="R25">
-        <v>42643</v>
+        <v>38990</v>
       </c>
       <c r="S25">
         <v>0</v>
       </c>
       <c r="T25">
-        <v>8257</v>
+        <v>834.30200000000002</v>
       </c>
       <c r="U25">
-        <v>40</v>
+        <v>26.707000000000001</v>
       </c>
       <c r="V25">
-        <v>247</v>
+        <v>32.43</v>
       </c>
       <c r="W25">
-        <v>-94</v>
+        <v>-35.627000000000002</v>
       </c>
       <c r="X25">
-        <v>112</v>
+        <v>24.167000000000002</v>
       </c>
       <c r="Y25">
         <v>0</v>
@@ -2720,39 +2840,39 @@
         <v>0</v>
       </c>
       <c r="AA25">
-        <v>120</v>
+        <v>24.562999999999999</v>
       </c>
     </row>
     <row r="26" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A26" s="1">
-        <v>42735</v>
+        <v>39082</v>
       </c>
       <c r="B26" t="s">
         <v>51</v>
       </c>
       <c r="C26">
-        <v>131</v>
+        <v>27.231999999999999</v>
       </c>
       <c r="D26">
-        <v>1251</v>
+        <v>89.635999999999996</v>
       </c>
       <c r="E26">
-        <v>161</v>
+        <v>44.947000000000003</v>
       </c>
       <c r="F26">
-        <v>318</v>
+        <v>53.933</v>
       </c>
       <c r="G26">
-        <v>676</v>
+        <v>46.808</v>
       </c>
       <c r="H26">
-        <v>15017</v>
+        <v>1676.204</v>
       </c>
       <c r="I26">
-        <v>475</v>
+        <v>37.411000000000001</v>
       </c>
       <c r="J26">
-        <v>4148</v>
+        <v>609.07500000000005</v>
       </c>
       <c r="K26">
         <v>0</v>
@@ -2764,37 +2884,37 @@
         <v>0</v>
       </c>
       <c r="N26">
-        <v>778</v>
+        <v>71.138999999999996</v>
       </c>
       <c r="O26">
-        <v>6721</v>
+        <v>823.72</v>
       </c>
       <c r="P26">
-        <v>4157</v>
+        <v>630.18100000000004</v>
       </c>
       <c r="Q26">
-        <v>-5</v>
+        <v>-24.846</v>
       </c>
       <c r="R26">
-        <v>42735</v>
+        <v>39082</v>
       </c>
       <c r="S26">
-        <v>1335</v>
+        <v>331</v>
       </c>
       <c r="T26">
-        <v>8296</v>
+        <v>852.48400000000004</v>
       </c>
       <c r="U26">
-        <v>35</v>
+        <v>1.861</v>
       </c>
       <c r="V26">
-        <v>286</v>
+        <v>41.110999999999997</v>
       </c>
       <c r="W26">
-        <v>-98</v>
+        <v>-37.493000000000002</v>
       </c>
       <c r="X26">
-        <v>229</v>
+        <v>-6.5650000000000004</v>
       </c>
       <c r="Y26">
         <v>0</v>
@@ -2803,81 +2923,81 @@
         <v>0</v>
       </c>
       <c r="AA26">
-        <v>131</v>
+        <v>27.231999999999999</v>
       </c>
     </row>
     <row r="27" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A27" s="1">
-        <v>42825</v>
+        <v>39172</v>
       </c>
       <c r="B27" t="s">
         <v>52</v>
       </c>
       <c r="C27">
-        <v>210</v>
+        <v>33.929000000000002</v>
       </c>
       <c r="D27">
-        <v>1480</v>
+        <v>112.94799999999999</v>
       </c>
       <c r="E27">
-        <v>463</v>
+        <v>59.142000000000003</v>
       </c>
       <c r="F27">
-        <v>363</v>
+        <v>65.167000000000002</v>
       </c>
       <c r="G27">
-        <v>628</v>
+        <v>59.142000000000003</v>
       </c>
       <c r="H27">
-        <v>15625</v>
+        <v>1757.5219999999999</v>
       </c>
       <c r="I27">
-        <v>767</v>
+        <v>50.142000000000003</v>
       </c>
       <c r="J27">
-        <v>4477</v>
+        <v>643.67200000000003</v>
       </c>
       <c r="K27">
-        <v>0</v>
+        <v>2.0219999999999998</v>
       </c>
       <c r="L27">
         <v>0</v>
       </c>
       <c r="M27">
-        <v>-351</v>
+        <v>-1.4530000000000001</v>
       </c>
       <c r="N27">
-        <v>858</v>
+        <v>85.668000000000006</v>
       </c>
       <c r="O27">
-        <v>7198</v>
+        <v>875.82</v>
       </c>
       <c r="P27">
-        <v>4483</v>
+        <v>665.09100000000001</v>
       </c>
       <c r="Q27">
-        <v>1</v>
+        <v>-3.883</v>
       </c>
       <c r="R27">
-        <v>42825</v>
+        <v>39172</v>
       </c>
       <c r="S27">
         <v>0</v>
       </c>
       <c r="T27">
-        <v>8427</v>
+        <v>881.702</v>
       </c>
       <c r="U27">
-        <v>36</v>
+        <v>0</v>
       </c>
       <c r="V27">
-        <v>326</v>
+        <v>46.906999999999996</v>
       </c>
       <c r="W27">
-        <v>-98</v>
+        <v>-40.612000000000002</v>
       </c>
       <c r="X27">
-        <v>244</v>
+        <v>29.619</v>
       </c>
       <c r="Y27">
         <v>0</v>
@@ -2886,164 +3006,164 @@
         <v>0</v>
       </c>
       <c r="AA27">
-        <v>210</v>
+        <v>33.929000000000002</v>
       </c>
     </row>
     <row r="28" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A28" s="1">
-        <v>42916</v>
+        <v>39263</v>
       </c>
       <c r="B28" t="s">
         <v>53</v>
       </c>
       <c r="C28">
-        <v>117</v>
+        <v>35.491999999999997</v>
       </c>
       <c r="D28">
-        <v>1159</v>
+        <v>126.373</v>
       </c>
       <c r="E28">
-        <v>386</v>
+        <v>48.973999999999997</v>
       </c>
       <c r="F28">
-        <v>264</v>
+        <v>62.707999999999998</v>
       </c>
       <c r="G28">
-        <v>548</v>
+        <v>48.973999999999997</v>
       </c>
       <c r="H28">
-        <v>15931</v>
+        <v>1824.9770000000001</v>
       </c>
       <c r="I28">
-        <v>661</v>
+        <v>37.329000000000001</v>
       </c>
       <c r="J28">
-        <v>4809</v>
+        <v>680.89800000000002</v>
       </c>
       <c r="K28">
-        <v>0</v>
+        <v>4.3579999999999997</v>
       </c>
       <c r="L28">
         <v>0</v>
       </c>
       <c r="M28">
-        <v>-6</v>
+        <v>-1.4790000000000001</v>
       </c>
       <c r="N28">
-        <v>772</v>
+        <v>62.332999999999998</v>
       </c>
       <c r="O28">
-        <v>7488</v>
+        <v>912.78700000000003</v>
       </c>
       <c r="P28">
-        <v>4815</v>
+        <v>691.44899999999996</v>
       </c>
       <c r="Q28">
-        <v>17</v>
+        <v>-2.3359999999999999</v>
       </c>
       <c r="R28">
-        <v>42916</v>
+        <v>39263</v>
       </c>
       <c r="S28">
         <v>0</v>
       </c>
       <c r="T28">
-        <v>8443</v>
+        <v>912.19</v>
       </c>
       <c r="U28">
-        <v>53</v>
+        <v>0</v>
       </c>
       <c r="V28">
-        <v>362</v>
+        <v>42.18</v>
       </c>
       <c r="W28">
-        <v>-184</v>
+        <v>-42.545000000000002</v>
       </c>
       <c r="X28">
-        <v>217</v>
+        <v>21.89</v>
       </c>
       <c r="Y28">
         <v>0</v>
       </c>
       <c r="Z28">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="AA28">
-        <v>117</v>
+        <v>35.491999999999997</v>
       </c>
     </row>
     <row r="29" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A29" s="1">
-        <v>43008</v>
+        <v>39355</v>
       </c>
       <c r="B29" t="s">
         <v>54</v>
       </c>
       <c r="C29">
-        <v>111</v>
+        <v>37.902999999999999</v>
       </c>
       <c r="D29">
-        <v>1045</v>
+        <v>131.477</v>
       </c>
       <c r="E29">
-        <v>437</v>
+        <v>55.363</v>
       </c>
       <c r="F29">
-        <v>335</v>
+        <v>66.882999999999996</v>
       </c>
       <c r="G29">
-        <v>620</v>
+        <v>55.363</v>
       </c>
       <c r="H29">
-        <v>16265</v>
+        <v>1867.2280000000001</v>
       </c>
       <c r="I29">
-        <v>665</v>
+        <v>46.744999999999997</v>
       </c>
       <c r="J29">
-        <v>5138</v>
+        <v>729.99300000000005</v>
       </c>
       <c r="K29">
-        <v>0</v>
+        <v>0.28699999999999998</v>
       </c>
       <c r="L29">
         <v>0</v>
       </c>
       <c r="M29">
-        <v>-458</v>
+        <v>-1.5069999999999999</v>
       </c>
       <c r="N29">
-        <v>792</v>
+        <v>69.186000000000007</v>
       </c>
       <c r="O29">
-        <v>7933</v>
+        <v>962.79300000000001</v>
       </c>
       <c r="P29">
-        <v>5144</v>
+        <v>736.58600000000001</v>
       </c>
       <c r="Q29">
-        <v>-22</v>
+        <v>4.0709999999999997</v>
       </c>
       <c r="R29">
-        <v>43008</v>
+        <v>39355</v>
       </c>
       <c r="S29">
         <v>0</v>
       </c>
       <c r="T29">
-        <v>8332</v>
+        <v>904.43499999999995</v>
       </c>
       <c r="U29">
-        <v>31</v>
+        <v>0</v>
       </c>
       <c r="V29">
-        <v>302</v>
+        <v>51.665999999999997</v>
       </c>
       <c r="W29">
-        <v>-224</v>
+        <v>-44.804000000000002</v>
       </c>
       <c r="X29">
-        <v>93</v>
+        <v>12.37</v>
       </c>
       <c r="Y29">
         <v>0</v>
@@ -3052,42 +3172,42 @@
         <v>0</v>
       </c>
       <c r="AA29">
-        <v>111</v>
+        <v>37.902999999999999</v>
       </c>
     </row>
     <row r="30" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A30" s="1">
-        <v>43100</v>
+        <v>39447</v>
       </c>
       <c r="B30" t="s">
         <v>55</v>
       </c>
       <c r="C30">
-        <v>445</v>
+        <v>34.981000000000002</v>
       </c>
       <c r="D30">
-        <v>1716</v>
+        <v>133.99</v>
       </c>
       <c r="E30">
-        <v>177</v>
+        <v>56.177</v>
       </c>
       <c r="F30">
-        <v>467</v>
+        <v>65.349000000000004</v>
       </c>
       <c r="G30">
-        <v>1022</v>
+        <v>72.912999999999997</v>
       </c>
       <c r="H30">
-        <v>25566</v>
+        <v>1966.808</v>
       </c>
       <c r="I30">
-        <v>465</v>
+        <v>59.484999999999999</v>
       </c>
       <c r="J30">
-        <v>7291</v>
+        <v>820.06600000000003</v>
       </c>
       <c r="K30">
-        <v>152</v>
+        <v>0</v>
       </c>
       <c r="L30">
         <v>0</v>
@@ -3096,203 +3216,203 @@
         <v>0</v>
       </c>
       <c r="N30">
-        <v>1150</v>
+        <v>81.811999999999998</v>
       </c>
       <c r="O30">
-        <v>11725</v>
+        <v>1058.0709999999999</v>
       </c>
       <c r="P30">
-        <v>7558</v>
+        <v>826.48800000000006</v>
       </c>
       <c r="Q30">
-        <v>290</v>
+        <v>17.023</v>
       </c>
       <c r="R30">
-        <v>43100</v>
+        <v>39447</v>
       </c>
       <c r="S30">
-        <v>1539</v>
+        <v>0</v>
       </c>
       <c r="T30">
-        <v>13841</v>
+        <v>908.73699999999997</v>
       </c>
       <c r="U30">
-        <v>321</v>
+        <v>16.736000000000001</v>
       </c>
       <c r="V30">
-        <v>523</v>
+        <v>48.787999999999997</v>
       </c>
       <c r="W30">
-        <v>-275</v>
+        <v>-47.625999999999998</v>
       </c>
       <c r="X30">
-        <v>1551</v>
+        <v>48.216000000000001</v>
       </c>
       <c r="Y30">
-        <v>9</v>
+        <v>0</v>
       </c>
       <c r="Z30">
-        <v>-6</v>
+        <v>0</v>
       </c>
       <c r="AA30">
-        <v>445</v>
+        <v>34.981000000000002</v>
       </c>
     </row>
     <row r="31" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A31" s="1">
-        <v>43190</v>
+        <v>39538</v>
       </c>
       <c r="B31" t="s">
         <v>56</v>
       </c>
       <c r="C31">
-        <v>330</v>
+        <v>32.572000000000003</v>
       </c>
       <c r="D31">
-        <v>1837</v>
+        <v>142.73500000000001</v>
       </c>
       <c r="E31">
-        <v>527</v>
+        <v>54.121000000000002</v>
       </c>
       <c r="F31">
-        <v>480</v>
+        <v>71.188999999999993</v>
       </c>
       <c r="G31">
-        <v>1032</v>
+        <v>54.121000000000002</v>
       </c>
       <c r="H31">
-        <v>25938</v>
+        <v>2027.6010000000001</v>
       </c>
       <c r="I31">
-        <v>628</v>
+        <v>70.069000000000003</v>
       </c>
       <c r="J31">
-        <v>7512</v>
+        <v>878.49</v>
       </c>
       <c r="K31">
-        <v>152</v>
+        <v>0.379</v>
       </c>
       <c r="L31">
         <v>0</v>
       </c>
       <c r="M31">
-        <v>-484</v>
+        <v>-1.5620000000000001</v>
       </c>
       <c r="N31">
-        <v>1088</v>
+        <v>92.924999999999997</v>
       </c>
       <c r="O31">
-        <v>11948</v>
+        <v>1129.08</v>
       </c>
       <c r="P31">
-        <v>7766</v>
+        <v>885.40800000000002</v>
       </c>
       <c r="Q31">
-        <v>38</v>
+        <v>-17.114999999999998</v>
       </c>
       <c r="R31">
-        <v>43190</v>
+        <v>39538</v>
       </c>
       <c r="S31">
         <v>0</v>
       </c>
       <c r="T31">
-        <v>13990</v>
+        <v>898.52099999999996</v>
       </c>
       <c r="U31">
-        <v>359</v>
+        <v>0</v>
       </c>
       <c r="V31">
-        <v>498</v>
+        <v>59.033999999999999</v>
       </c>
       <c r="W31">
-        <v>-302</v>
+        <v>-47.76</v>
       </c>
       <c r="X31">
-        <v>-86</v>
+        <v>14.422000000000001</v>
       </c>
       <c r="Y31">
         <v>0</v>
       </c>
       <c r="Z31">
-        <v>-58</v>
+        <v>0</v>
       </c>
       <c r="AA31">
-        <v>330</v>
+        <v>32.572000000000003</v>
       </c>
     </row>
     <row r="32" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A32" s="1">
-        <v>43281</v>
+        <v>39629</v>
       </c>
       <c r="B32" t="s">
         <v>57</v>
       </c>
       <c r="C32">
-        <v>246</v>
+        <v>42.122</v>
       </c>
       <c r="D32">
-        <v>1743</v>
+        <v>181.48400000000001</v>
       </c>
       <c r="E32">
-        <v>512</v>
+        <v>100.056</v>
       </c>
       <c r="F32">
-        <v>470</v>
+        <v>72.007000000000005</v>
       </c>
       <c r="G32">
-        <v>844</v>
+        <v>100.056</v>
       </c>
       <c r="H32">
-        <v>25888</v>
+        <v>2155.7170000000001</v>
       </c>
       <c r="I32">
-        <v>715</v>
+        <v>71.873999999999995</v>
       </c>
       <c r="J32">
-        <v>7015</v>
+        <v>893.726</v>
       </c>
       <c r="K32">
-        <v>151</v>
+        <v>7.4889999999999999</v>
       </c>
       <c r="L32">
         <v>0</v>
       </c>
       <c r="M32">
-        <v>-336</v>
+        <v>-1.591</v>
       </c>
       <c r="N32">
-        <v>1450</v>
+        <v>177.01499999999999</v>
       </c>
       <c r="O32">
-        <v>11847</v>
+        <v>1255.5239999999999</v>
       </c>
       <c r="P32">
-        <v>7468</v>
+        <v>982.87400000000002</v>
       </c>
       <c r="Q32">
-        <v>-278</v>
+        <v>-7.11</v>
       </c>
       <c r="R32">
-        <v>43281</v>
+        <v>39629</v>
       </c>
       <c r="S32">
         <v>0</v>
       </c>
       <c r="T32">
-        <v>14041</v>
+        <v>900.19299999999998</v>
       </c>
       <c r="U32">
-        <v>81</v>
+        <v>0</v>
       </c>
       <c r="V32">
-        <v>603</v>
+        <v>68.23</v>
       </c>
       <c r="W32">
-        <v>-307</v>
+        <v>-47.866</v>
       </c>
       <c r="X32">
-        <v>-576</v>
+        <v>48.786999999999999</v>
       </c>
       <c r="Y32">
         <v>0</v>
@@ -3301,81 +3421,81 @@
         <v>0</v>
       </c>
       <c r="AA32">
-        <v>246</v>
+        <v>42.122</v>
       </c>
     </row>
     <row r="33" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A33" s="1">
-        <v>43373</v>
+        <v>39721</v>
       </c>
       <c r="B33" t="s">
         <v>58</v>
       </c>
       <c r="C33">
-        <v>334</v>
+        <v>48.131</v>
       </c>
       <c r="D33">
-        <v>2045</v>
+        <v>201.28899999999999</v>
       </c>
       <c r="E33">
-        <v>590</v>
+        <v>65.703000000000003</v>
       </c>
       <c r="F33">
-        <v>504</v>
+        <v>76.91</v>
       </c>
       <c r="G33">
-        <v>1003</v>
+        <v>76.903999999999996</v>
       </c>
       <c r="H33">
-        <v>26135</v>
+        <v>2121.2150000000001</v>
       </c>
       <c r="I33">
-        <v>758</v>
+        <v>56.966000000000001</v>
       </c>
       <c r="J33">
-        <v>7138</v>
+        <v>874.90899999999999</v>
       </c>
       <c r="K33">
-        <v>151</v>
+        <v>0</v>
       </c>
       <c r="L33">
         <v>0</v>
       </c>
       <c r="M33">
-        <v>-7</v>
+        <v>-15.925000000000001</v>
       </c>
       <c r="N33">
-        <v>1433</v>
+        <v>156.11000000000001</v>
       </c>
       <c r="O33">
-        <v>12070</v>
+        <v>1222.57</v>
       </c>
       <c r="P33">
-        <v>7556</v>
+        <v>956.68899999999996</v>
       </c>
       <c r="Q33">
-        <v>48</v>
+        <v>18.690000000000001</v>
       </c>
       <c r="R33">
-        <v>43373</v>
+        <v>39721</v>
       </c>
       <c r="S33">
         <v>0</v>
       </c>
       <c r="T33">
-        <v>14065</v>
+        <v>898.64499999999998</v>
       </c>
       <c r="U33">
-        <v>129</v>
+        <v>11.201000000000001</v>
       </c>
       <c r="V33">
-        <v>481</v>
+        <v>50.445</v>
       </c>
       <c r="W33">
-        <v>-313</v>
+        <v>-49.362000000000002</v>
       </c>
       <c r="X33">
-        <v>-179</v>
+        <v>-64.361999999999995</v>
       </c>
       <c r="Y33">
         <v>0</v>
@@ -3384,39 +3504,39 @@
         <v>0</v>
       </c>
       <c r="AA33">
-        <v>334</v>
+        <v>48.131</v>
       </c>
     </row>
     <row r="34" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A34" s="1">
-        <v>43465</v>
+        <v>39813</v>
       </c>
       <c r="B34" t="s">
         <v>59</v>
       </c>
       <c r="C34">
-        <v>368</v>
+        <v>38.968000000000004</v>
       </c>
       <c r="D34">
-        <v>1726</v>
+        <v>149.375</v>
       </c>
       <c r="E34">
-        <v>500</v>
+        <v>57.613999999999997</v>
       </c>
       <c r="F34">
-        <v>440</v>
+        <v>82.921999999999997</v>
       </c>
       <c r="G34">
-        <v>1013</v>
+        <v>78.778000000000006</v>
       </c>
       <c r="H34">
-        <v>26664</v>
+        <v>2118.2089999999998</v>
       </c>
       <c r="I34">
-        <v>519</v>
+        <v>65.912999999999997</v>
       </c>
       <c r="J34">
-        <v>7043</v>
+        <v>872.66200000000003</v>
       </c>
       <c r="K34">
         <v>0</v>
@@ -3428,244 +3548,244 @@
         <v>0</v>
       </c>
       <c r="N34">
-        <v>1490</v>
+        <v>165.328</v>
       </c>
       <c r="O34">
-        <v>12260</v>
+        <v>1234.979</v>
       </c>
       <c r="P34">
-        <v>7537</v>
+        <v>954.56600000000003</v>
       </c>
       <c r="Q34">
-        <v>28</v>
+        <v>2.4369999999999998</v>
       </c>
       <c r="R34">
-        <v>43465</v>
+        <v>39813</v>
       </c>
       <c r="S34">
-        <v>2162</v>
+        <v>0</v>
       </c>
       <c r="T34">
-        <v>14404</v>
+        <v>883.23</v>
       </c>
       <c r="U34">
-        <v>157</v>
+        <v>13.638</v>
       </c>
       <c r="V34">
-        <v>674</v>
+        <v>63.505000000000003</v>
       </c>
       <c r="W34">
-        <v>-325</v>
+        <v>-52.164999999999999</v>
       </c>
       <c r="X34">
-        <v>-285</v>
+        <v>-38.685000000000002</v>
       </c>
       <c r="Y34">
-        <v>14</v>
+        <v>0</v>
       </c>
       <c r="Z34">
         <v>0</v>
       </c>
       <c r="AA34">
-        <v>368</v>
+        <v>38.968000000000004</v>
       </c>
     </row>
     <row r="35" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A35" s="1">
-        <v>43555</v>
+        <v>39903</v>
       </c>
       <c r="B35" t="s">
         <v>60</v>
       </c>
       <c r="C35">
-        <v>313</v>
+        <v>28.280999999999999</v>
       </c>
       <c r="D35">
-        <v>1968</v>
+        <v>158.03399999999999</v>
       </c>
       <c r="E35">
-        <v>578</v>
+        <v>69.400999999999996</v>
       </c>
       <c r="F35">
-        <v>518</v>
+        <v>71.977999999999994</v>
       </c>
       <c r="G35">
-        <v>911</v>
+        <v>69.400999999999996</v>
       </c>
       <c r="H35">
-        <v>27217</v>
+        <v>2123.529</v>
       </c>
       <c r="I35">
-        <v>826</v>
+        <v>44.228000000000002</v>
       </c>
       <c r="J35">
-        <v>7089</v>
+        <v>888.428</v>
       </c>
       <c r="K35">
-        <v>0</v>
+        <v>0.17599999999999999</v>
       </c>
       <c r="L35">
         <v>0</v>
       </c>
       <c r="M35">
-        <v>-71</v>
+        <v>-1.679</v>
       </c>
       <c r="N35">
-        <v>1516</v>
+        <v>144.27699999999999</v>
       </c>
       <c r="O35">
-        <v>12796</v>
+        <v>1235.818</v>
       </c>
       <c r="P35">
-        <v>8020</v>
+        <v>970.63499999999999</v>
       </c>
       <c r="Q35">
-        <v>15</v>
+        <v>-13.814</v>
       </c>
       <c r="R35">
-        <v>43555</v>
+        <v>39903</v>
       </c>
       <c r="S35">
         <v>0</v>
       </c>
       <c r="T35">
-        <v>14421</v>
+        <v>887.71100000000001</v>
       </c>
       <c r="U35">
-        <v>172</v>
+        <v>0</v>
       </c>
       <c r="V35">
-        <v>608</v>
+        <v>41.155000000000001</v>
       </c>
       <c r="W35">
-        <v>-314</v>
+        <v>-52.843000000000004</v>
       </c>
       <c r="X35">
-        <v>-205</v>
+        <v>-3.9969999999999999</v>
       </c>
       <c r="Y35">
-        <v>396</v>
+        <v>0</v>
       </c>
       <c r="Z35">
-        <v>-33</v>
+        <v>0</v>
       </c>
       <c r="AA35">
-        <v>313</v>
+        <v>28.280999999999999</v>
       </c>
     </row>
     <row r="36" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A36" s="1">
-        <v>43646</v>
+        <v>39994</v>
       </c>
       <c r="B36" t="s">
         <v>61</v>
       </c>
       <c r="C36">
-        <v>664</v>
+        <v>36.173000000000002</v>
       </c>
       <c r="D36">
-        <v>1808</v>
+        <v>185.46700000000001</v>
       </c>
       <c r="E36">
-        <v>534</v>
+        <v>80.546999999999997</v>
       </c>
       <c r="F36">
-        <v>516</v>
+        <v>85.271000000000001</v>
       </c>
       <c r="G36">
-        <v>978</v>
+        <v>80.546999999999997</v>
       </c>
       <c r="H36">
-        <v>27570</v>
+        <v>2454.7139999999999</v>
       </c>
       <c r="I36">
-        <v>865</v>
+        <v>35.020000000000003</v>
       </c>
       <c r="J36">
-        <v>7468</v>
+        <v>1104.222</v>
       </c>
       <c r="K36">
-        <v>0</v>
+        <v>8.8629999999999995</v>
       </c>
       <c r="L36">
         <v>0</v>
       </c>
       <c r="M36">
-        <v>0</v>
+        <v>-76.709999999999994</v>
       </c>
       <c r="N36">
-        <v>1428</v>
+        <v>70.875</v>
       </c>
       <c r="O36">
-        <v>12861</v>
+        <v>1388.617</v>
       </c>
       <c r="P36">
-        <v>8261</v>
+        <v>1120.2439999999999</v>
       </c>
       <c r="Q36">
-        <v>156</v>
+        <v>-8.6869999999999994</v>
       </c>
       <c r="R36">
-        <v>43646</v>
+        <v>39994</v>
       </c>
       <c r="S36">
         <v>0</v>
       </c>
       <c r="T36">
-        <v>14709</v>
+        <v>1066.097</v>
       </c>
       <c r="U36">
-        <v>328</v>
+        <v>0</v>
       </c>
       <c r="V36">
-        <v>661</v>
+        <v>49.241</v>
       </c>
       <c r="W36">
-        <v>-327</v>
+        <v>-55.511000000000003</v>
       </c>
       <c r="X36">
-        <v>-64</v>
+        <v>276.286</v>
       </c>
       <c r="Y36">
-        <v>388</v>
+        <v>0</v>
       </c>
       <c r="Z36">
-        <v>-28</v>
+        <v>0</v>
       </c>
       <c r="AA36">
-        <v>664</v>
+        <v>36.173000000000002</v>
       </c>
     </row>
     <row r="37" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A37" s="1">
-        <v>43738</v>
+        <v>40086</v>
       </c>
       <c r="B37" t="s">
         <v>62</v>
       </c>
       <c r="C37">
-        <v>370</v>
+        <v>44.695999999999998</v>
       </c>
       <c r="D37">
-        <v>1700</v>
+        <v>211.858</v>
       </c>
       <c r="E37">
-        <v>580</v>
+        <v>78.474000000000004</v>
       </c>
       <c r="F37">
-        <v>479</v>
+        <v>91.472999999999999</v>
       </c>
       <c r="G37">
-        <v>1380</v>
+        <v>97.474999999999994</v>
       </c>
       <c r="H37">
-        <v>28277</v>
+        <v>2480.54</v>
       </c>
       <c r="I37">
-        <v>852</v>
+        <v>37.198</v>
       </c>
       <c r="J37">
-        <v>7980</v>
+        <v>1108.7929999999999</v>
       </c>
       <c r="K37">
         <v>0</v>
@@ -3674,81 +3794,81 @@
         <v>0</v>
       </c>
       <c r="M37">
-        <v>-1014</v>
+        <v>-1.7410000000000001</v>
       </c>
       <c r="N37">
-        <v>1526</v>
+        <v>64.682000000000002</v>
       </c>
       <c r="O37">
-        <v>13465</v>
+        <v>1391.5260000000001</v>
       </c>
       <c r="P37">
-        <v>8768</v>
+        <v>1116.0830000000001</v>
       </c>
       <c r="Q37">
-        <v>292</v>
+        <v>12.991</v>
       </c>
       <c r="R37">
-        <v>43738</v>
+        <v>40086</v>
       </c>
       <c r="S37">
         <v>0</v>
       </c>
       <c r="T37">
-        <v>14812</v>
+        <v>1089.0139999999999</v>
       </c>
       <c r="U37">
-        <v>620</v>
+        <v>4.1280000000000001</v>
       </c>
       <c r="V37">
-        <v>535</v>
+        <v>62.213000000000001</v>
       </c>
       <c r="W37">
-        <v>-344</v>
+        <v>-59.857999999999997</v>
       </c>
       <c r="X37">
-        <v>178</v>
+        <v>-15.917</v>
       </c>
       <c r="Y37">
-        <v>383</v>
+        <v>0</v>
       </c>
       <c r="Z37">
-        <v>-25</v>
+        <v>0</v>
       </c>
       <c r="AA37">
-        <v>370</v>
+        <v>44.695999999999998</v>
       </c>
     </row>
     <row r="38" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A38" s="1">
-        <v>43830</v>
+        <v>40178</v>
       </c>
       <c r="B38" t="s">
         <v>63</v>
       </c>
       <c r="C38">
-        <v>160</v>
+        <v>52.927999999999997</v>
       </c>
       <c r="D38">
-        <v>1754</v>
+        <v>256.43700000000001</v>
       </c>
       <c r="E38">
-        <v>575</v>
+        <v>83.244</v>
       </c>
       <c r="F38">
-        <v>534</v>
+        <v>89.54</v>
       </c>
       <c r="G38">
-        <v>989</v>
+        <v>156.16900000000001</v>
       </c>
       <c r="H38">
-        <v>32755</v>
+        <v>2581.125</v>
       </c>
       <c r="I38">
-        <v>717</v>
+        <v>57.997</v>
       </c>
       <c r="J38">
-        <v>10078</v>
+        <v>979.63900000000001</v>
       </c>
       <c r="K38">
         <v>0</v>
@@ -3760,78 +3880,78 @@
         <v>0</v>
       </c>
       <c r="N38">
-        <v>1449</v>
+        <v>272.67599999999999</v>
       </c>
       <c r="O38">
-        <v>15887</v>
+        <v>1451.7529999999999</v>
       </c>
       <c r="P38">
-        <v>10971</v>
+        <v>1173.702</v>
       </c>
       <c r="Q38">
-        <v>-491</v>
+        <v>49.798999999999999</v>
       </c>
       <c r="R38">
-        <v>43830</v>
+        <v>40178</v>
       </c>
       <c r="S38">
-        <v>2791</v>
+        <v>427</v>
       </c>
       <c r="T38">
-        <v>16868</v>
+        <v>1129.3720000000001</v>
       </c>
       <c r="U38">
-        <v>129</v>
+        <v>53.927</v>
       </c>
       <c r="V38">
-        <v>728</v>
+        <v>72.004000000000005</v>
       </c>
       <c r="W38">
-        <v>-338</v>
+        <v>-60.984999999999999</v>
       </c>
       <c r="X38">
-        <v>1442</v>
+        <v>37.090000000000003</v>
       </c>
       <c r="Y38">
-        <v>707</v>
+        <v>0</v>
       </c>
       <c r="Z38">
-        <v>-120</v>
+        <v>0</v>
       </c>
       <c r="AA38">
-        <v>160</v>
+        <v>52.927999999999997</v>
       </c>
     </row>
     <row r="39" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A39" s="1">
-        <v>43921</v>
+        <v>40268</v>
       </c>
       <c r="B39" t="s">
         <v>64</v>
       </c>
       <c r="C39">
-        <v>314</v>
+        <v>52.17</v>
       </c>
       <c r="D39">
-        <v>1671</v>
+        <v>289.02100000000002</v>
       </c>
       <c r="E39">
-        <v>533</v>
+        <v>80.19</v>
       </c>
       <c r="F39">
-        <v>519</v>
+        <v>74.082999999999998</v>
       </c>
       <c r="G39">
-        <v>924</v>
+        <v>192.059</v>
       </c>
       <c r="H39">
-        <v>34110</v>
+        <v>2620.1860000000001</v>
       </c>
       <c r="I39">
-        <v>891</v>
+        <v>55.276000000000003</v>
       </c>
       <c r="J39">
-        <v>10339</v>
+        <v>971.91499999999996</v>
       </c>
       <c r="K39">
         <v>0</v>
@@ -3840,164 +3960,164 @@
         <v>0</v>
       </c>
       <c r="M39">
-        <v>-1141</v>
+        <v>-2.2189999999999999</v>
       </c>
       <c r="N39">
-        <v>1525</v>
+        <v>266.738</v>
       </c>
       <c r="O39">
-        <v>16846</v>
+        <v>1444.0329999999999</v>
       </c>
       <c r="P39">
-        <v>11483</v>
+        <v>1162.2940000000001</v>
       </c>
       <c r="Q39">
-        <v>3</v>
+        <v>36.591999999999999</v>
       </c>
       <c r="R39">
-        <v>43921</v>
+        <v>40268</v>
       </c>
       <c r="S39">
         <v>0</v>
       </c>
       <c r="T39">
-        <v>17264</v>
+        <v>1176.153</v>
       </c>
       <c r="U39">
-        <v>132</v>
+        <v>90.519000000000005</v>
       </c>
       <c r="V39">
-        <v>410</v>
+        <v>66.477999999999994</v>
       </c>
       <c r="W39">
-        <v>-378</v>
+        <v>-62.363</v>
       </c>
       <c r="X39">
-        <v>142</v>
+        <v>-9.9060000000000006</v>
       </c>
       <c r="Y39">
-        <v>726</v>
+        <v>0</v>
       </c>
       <c r="Z39">
-        <v>-172</v>
+        <v>0</v>
       </c>
       <c r="AA39">
-        <v>314</v>
+        <v>52.17</v>
       </c>
     </row>
     <row r="40" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A40" s="1">
-        <v>44012</v>
+        <v>40359</v>
       </c>
       <c r="B40" t="s">
         <v>65</v>
       </c>
       <c r="C40">
-        <v>253</v>
+        <v>37.698</v>
       </c>
       <c r="D40">
-        <v>1268</v>
+        <v>386.36</v>
       </c>
       <c r="E40">
-        <v>536</v>
+        <v>77.628</v>
       </c>
       <c r="F40">
-        <v>455</v>
+        <v>71.959999999999994</v>
       </c>
       <c r="G40">
-        <v>823</v>
+        <v>106.57599999999999</v>
       </c>
       <c r="H40">
-        <v>33791</v>
+        <v>2514.7440000000001</v>
       </c>
       <c r="I40">
-        <v>753</v>
+        <v>64.084000000000003</v>
       </c>
       <c r="J40">
-        <v>10312</v>
+        <v>979.471</v>
       </c>
       <c r="K40">
-        <v>0</v>
+        <v>4.2770000000000001</v>
       </c>
       <c r="L40">
         <v>0</v>
       </c>
       <c r="M40">
-        <v>0</v>
+        <v>-102.26600000000001</v>
       </c>
       <c r="N40">
-        <v>1601</v>
+        <v>177.38300000000001</v>
       </c>
       <c r="O40">
-        <v>16860</v>
+        <v>1342.8130000000001</v>
       </c>
       <c r="P40">
-        <v>11574</v>
+        <v>1071.5060000000001</v>
       </c>
       <c r="Q40">
-        <v>-59</v>
+        <v>-94.796000000000006</v>
       </c>
       <c r="R40">
-        <v>44012</v>
+        <v>40359</v>
       </c>
       <c r="S40">
         <v>0</v>
       </c>
       <c r="T40">
-        <v>16931</v>
+        <v>1171.931</v>
       </c>
       <c r="U40">
-        <v>73</v>
+        <v>0</v>
       </c>
       <c r="V40">
-        <v>642</v>
+        <v>69.563000000000002</v>
       </c>
       <c r="W40">
-        <v>-384</v>
+        <v>-63.552999999999997</v>
       </c>
       <c r="X40">
-        <v>-274</v>
+        <v>-139.30699999999999</v>
       </c>
       <c r="Y40">
-        <v>702</v>
+        <v>0</v>
       </c>
       <c r="Z40">
-        <v>-2</v>
+        <v>0</v>
       </c>
       <c r="AA40">
-        <v>253</v>
+        <v>37.698</v>
       </c>
     </row>
     <row r="41" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A41" s="1">
-        <v>44104</v>
+        <v>40451</v>
       </c>
       <c r="B41" t="s">
         <v>66</v>
       </c>
       <c r="C41">
-        <v>318</v>
+        <v>30.777999999999999</v>
       </c>
       <c r="D41">
-        <v>1569</v>
+        <v>266.60500000000002</v>
       </c>
       <c r="E41">
-        <v>637</v>
+        <v>75.462000000000003</v>
       </c>
       <c r="F41">
-        <v>501</v>
+        <v>62.896999999999998</v>
       </c>
       <c r="G41">
-        <v>916</v>
+        <v>103.13500000000001</v>
       </c>
       <c r="H41">
-        <v>33995</v>
+        <v>2532.3649999999998</v>
       </c>
       <c r="I41">
-        <v>697</v>
+        <v>67.504000000000005</v>
       </c>
       <c r="J41">
-        <v>10737</v>
+        <v>989.08100000000002</v>
       </c>
       <c r="K41">
         <v>0</v>
@@ -4006,131 +4126,3451 @@
         <v>0</v>
       </c>
       <c r="M41">
-        <v>-315</v>
+        <v>-2.29</v>
       </c>
       <c r="N41">
-        <v>1286</v>
+        <v>193.352</v>
       </c>
       <c r="O41">
-        <v>17226</v>
+        <v>1374.73</v>
       </c>
       <c r="P41">
-        <v>11770</v>
+        <v>1093.568</v>
       </c>
       <c r="Q41">
-        <v>-42</v>
+        <v>6.2990000000000004</v>
       </c>
       <c r="R41">
-        <v>44104</v>
+        <v>40451</v>
       </c>
       <c r="S41">
         <v>0</v>
       </c>
       <c r="T41">
-        <v>16769</v>
+        <v>1157.635</v>
       </c>
       <c r="U41">
-        <v>31</v>
+        <v>2.0219999999999998</v>
       </c>
       <c r="V41">
-        <v>434</v>
+        <v>66.551000000000002</v>
       </c>
       <c r="W41">
-        <v>-384</v>
+        <v>-63.9</v>
       </c>
       <c r="X41">
-        <v>-173</v>
+        <v>-26.463000000000001</v>
       </c>
       <c r="Y41">
-        <v>686</v>
+        <v>0</v>
       </c>
       <c r="Z41">
-        <v>-28</v>
+        <v>0</v>
       </c>
       <c r="AA41">
-        <v>318</v>
+        <v>30.777999999999999</v>
       </c>
     </row>
     <row r="42" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A42" s="1">
-        <v>44196</v>
+        <v>40543</v>
       </c>
       <c r="B42" t="s">
         <v>67</v>
       </c>
       <c r="C42">
+        <v>55.183999999999997</v>
+      </c>
+      <c r="D42">
+        <v>290.20400000000001</v>
+      </c>
+      <c r="E42">
+        <v>101.962</v>
+      </c>
+      <c r="F42">
+        <v>70.557000000000002</v>
+      </c>
+      <c r="G42">
+        <v>262.16899999999998</v>
+      </c>
+      <c r="H42">
+        <v>2856.848</v>
+      </c>
+      <c r="I42">
+        <v>80.528000000000006</v>
+      </c>
+      <c r="J42">
+        <v>1296.2560000000001</v>
+      </c>
+      <c r="K42">
+        <v>0</v>
+      </c>
+      <c r="L42">
+        <v>0</v>
+      </c>
+      <c r="M42">
+        <v>0</v>
+      </c>
+      <c r="N42">
+        <v>137.15600000000001</v>
+      </c>
+      <c r="O42">
+        <v>1806.24</v>
+      </c>
+      <c r="P42">
+        <v>1308.7919999999999</v>
+      </c>
+      <c r="Q42">
+        <v>123.375</v>
+      </c>
+      <c r="R42">
+        <v>40543</v>
+      </c>
+      <c r="S42">
+        <v>428</v>
+      </c>
+      <c r="T42">
+        <v>1050.6079999999999</v>
+      </c>
+      <c r="U42">
+        <v>125.39700000000001</v>
+      </c>
+      <c r="V42">
+        <v>54.603000000000002</v>
+      </c>
+      <c r="W42">
+        <v>-64.257999999999996</v>
+      </c>
+      <c r="X42">
+        <v>175.64500000000001</v>
+      </c>
+      <c r="Y42">
+        <v>2.4809999999999999</v>
+      </c>
+      <c r="Z42">
+        <v>0</v>
+      </c>
+      <c r="AA42">
+        <v>55.183999999999997</v>
+      </c>
+    </row>
+    <row r="43" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A43" s="1">
+        <v>40633</v>
+      </c>
+      <c r="B43" t="s">
+        <v>68</v>
+      </c>
+      <c r="C43">
+        <v>42.491999999999997</v>
+      </c>
+      <c r="D43">
+        <v>394.29300000000001</v>
+      </c>
+      <c r="E43">
+        <v>96.914000000000001</v>
+      </c>
+      <c r="F43">
+        <v>82.492000000000004</v>
+      </c>
+      <c r="G43">
+        <v>347.02699999999999</v>
+      </c>
+      <c r="H43">
+        <v>3153.346</v>
+      </c>
+      <c r="I43">
+        <v>114.574</v>
+      </c>
+      <c r="J43">
+        <v>1590.348</v>
+      </c>
+      <c r="K43">
+        <v>0</v>
+      </c>
+      <c r="L43">
+        <v>0</v>
+      </c>
+      <c r="M43">
+        <v>-2.512</v>
+      </c>
+      <c r="N43">
+        <v>151.23099999999999</v>
+      </c>
+      <c r="O43">
+        <v>2121.41</v>
+      </c>
+      <c r="P43">
+        <v>1600.4870000000001</v>
+      </c>
+      <c r="Q43">
+        <v>91.39</v>
+      </c>
+      <c r="R43">
+        <v>40633</v>
+      </c>
+      <c r="S43">
+        <v>0</v>
+      </c>
+      <c r="T43">
+        <v>1031.9359999999999</v>
+      </c>
+      <c r="U43">
+        <v>216.78700000000001</v>
+      </c>
+      <c r="V43">
+        <v>74.477999999999994</v>
+      </c>
+      <c r="W43">
+        <v>-65.116</v>
+      </c>
+      <c r="X43">
+        <v>224.49</v>
+      </c>
+      <c r="Y43">
+        <v>0</v>
+      </c>
+      <c r="Z43">
+        <v>0</v>
+      </c>
+      <c r="AA43">
+        <v>42.491999999999997</v>
+      </c>
+    </row>
+    <row r="44" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A44" s="1">
+        <v>40724</v>
+      </c>
+      <c r="B44" t="s">
+        <v>69</v>
+      </c>
+      <c r="C44">
+        <v>48.042999999999999</v>
+      </c>
+      <c r="D44">
+        <v>512.40599999999995</v>
+      </c>
+      <c r="E44">
+        <v>141.06800000000001</v>
+      </c>
+      <c r="F44">
+        <v>94.66</v>
+      </c>
+      <c r="G44">
+        <v>196.048</v>
+      </c>
+      <c r="H44">
+        <v>3055.67</v>
+      </c>
+      <c r="I44">
+        <v>77.489999999999995</v>
+      </c>
+      <c r="J44">
+        <v>1513.9559999999999</v>
+      </c>
+      <c r="K44">
+        <v>0</v>
+      </c>
+      <c r="L44">
+        <v>0</v>
+      </c>
+      <c r="M44">
+        <v>-82.587999999999994</v>
+      </c>
+      <c r="N44">
+        <v>111.458</v>
+      </c>
+      <c r="O44">
+        <v>2035.5360000000001</v>
+      </c>
+      <c r="P44">
+        <v>1524.4059999999999</v>
+      </c>
+      <c r="Q44">
+        <v>-182.19</v>
+      </c>
+      <c r="R44">
+        <v>40724</v>
+      </c>
+      <c r="S44">
+        <v>0</v>
+      </c>
+      <c r="T44">
+        <v>1020.134</v>
+      </c>
+      <c r="U44">
+        <v>34.597000000000001</v>
+      </c>
+      <c r="V44">
+        <v>49.503</v>
+      </c>
+      <c r="W44">
+        <v>-65.222999999999999</v>
+      </c>
+      <c r="X44">
+        <v>-142.59899999999999</v>
+      </c>
+      <c r="Y44">
+        <v>0</v>
+      </c>
+      <c r="Z44">
+        <v>0</v>
+      </c>
+      <c r="AA44">
+        <v>48.042999999999999</v>
+      </c>
+    </row>
+    <row r="45" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A45" s="1">
+        <v>40816</v>
+      </c>
+      <c r="B45" t="s">
+        <v>70</v>
+      </c>
+      <c r="C45">
+        <v>30.120999999999999</v>
+      </c>
+      <c r="D45">
+        <v>300.62</v>
+      </c>
+      <c r="E45">
+        <v>132.285</v>
+      </c>
+      <c r="F45">
+        <v>82.57</v>
+      </c>
+      <c r="G45">
+        <v>153.87899999999999</v>
+      </c>
+      <c r="H45">
+        <v>3172.4920000000002</v>
+      </c>
+      <c r="I45">
+        <v>84.340999999999994</v>
+      </c>
+      <c r="J45">
+        <v>1316.383</v>
+      </c>
+      <c r="K45">
+        <v>0.47699999999999998</v>
+      </c>
+      <c r="L45">
+        <v>0</v>
+      </c>
+      <c r="M45">
+        <v>-2.7639999999999998</v>
+      </c>
+      <c r="N45">
+        <v>346.67500000000001</v>
+      </c>
+      <c r="O45">
+        <v>2184.2280000000001</v>
+      </c>
+      <c r="P45">
+        <v>1552.135</v>
+      </c>
+      <c r="Q45">
+        <v>-35.073999999999998</v>
+      </c>
+      <c r="R45">
+        <v>40816</v>
+      </c>
+      <c r="S45">
+        <v>0</v>
+      </c>
+      <c r="T45">
+        <v>988.26400000000001</v>
+      </c>
+      <c r="U45">
+        <v>0</v>
+      </c>
+      <c r="V45">
+        <v>87.683000000000007</v>
+      </c>
+      <c r="W45">
+        <v>-65.349000000000004</v>
+      </c>
+      <c r="X45">
+        <v>-40.512</v>
+      </c>
+      <c r="Y45">
+        <v>0</v>
+      </c>
+      <c r="Z45">
+        <v>0</v>
+      </c>
+      <c r="AA45">
+        <v>30.120999999999999</v>
+      </c>
+    </row>
+    <row r="46" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A46" s="1">
+        <v>40908</v>
+      </c>
+      <c r="B46" t="s">
+        <v>71</v>
+      </c>
+      <c r="C46">
+        <v>45.01</v>
+      </c>
+      <c r="D46">
+        <v>468.137</v>
+      </c>
+      <c r="E46">
+        <v>145.673</v>
+      </c>
+      <c r="F46">
+        <v>85.533000000000001</v>
+      </c>
+      <c r="G46">
+        <v>174.14500000000001</v>
+      </c>
+      <c r="H46">
+        <v>3339.2020000000002</v>
+      </c>
+      <c r="I46">
+        <v>141.452</v>
+      </c>
+      <c r="J46">
+        <v>1314.239</v>
+      </c>
+      <c r="K46">
+        <v>3.8149999999999999</v>
+      </c>
+      <c r="L46">
+        <v>0</v>
+      </c>
+      <c r="M46">
+        <v>0</v>
+      </c>
+      <c r="N46">
+        <v>517.80200000000002</v>
+      </c>
+      <c r="O46">
+        <v>2377.585</v>
+      </c>
+      <c r="P46">
+        <v>1643.567</v>
+      </c>
+      <c r="Q46">
+        <v>-0.19900000000000001</v>
+      </c>
+      <c r="R46">
+        <v>40908</v>
+      </c>
+      <c r="S46">
+        <v>494</v>
+      </c>
+      <c r="T46">
+        <v>961.61699999999996</v>
+      </c>
+      <c r="U46">
+        <v>0</v>
+      </c>
+      <c r="V46">
+        <v>73.873999999999995</v>
+      </c>
+      <c r="W46">
+        <v>-65.414000000000001</v>
+      </c>
+      <c r="X46">
+        <v>24.344999999999999</v>
+      </c>
+      <c r="Y46">
+        <v>0</v>
+      </c>
+      <c r="Z46">
+        <v>0</v>
+      </c>
+      <c r="AA46">
+        <v>45.01</v>
+      </c>
+    </row>
+    <row r="47" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A47" s="1">
+        <v>40999</v>
+      </c>
+      <c r="B47" t="s">
+        <v>72</v>
+      </c>
+      <c r="C47">
+        <v>32.6</v>
+      </c>
+      <c r="D47">
+        <v>475.5</v>
+      </c>
+      <c r="E47">
+        <v>150.77000000000001</v>
+      </c>
+      <c r="F47">
+        <v>106.3</v>
+      </c>
+      <c r="G47">
+        <v>158.79599999999999</v>
+      </c>
+      <c r="H47">
+        <v>3351.933</v>
+      </c>
+      <c r="I47">
+        <v>116.17400000000001</v>
+      </c>
+      <c r="J47">
+        <v>1642.0609999999999</v>
+      </c>
+      <c r="K47">
+        <v>0</v>
+      </c>
+      <c r="L47">
+        <v>0</v>
+      </c>
+      <c r="M47">
+        <v>-2.7</v>
+      </c>
+      <c r="N47">
+        <v>200.81100000000001</v>
+      </c>
+      <c r="O47">
+        <v>2393.971</v>
+      </c>
+      <c r="P47">
+        <v>1704.7239999999999</v>
+      </c>
+      <c r="Q47">
+        <v>2.9</v>
+      </c>
+      <c r="R47">
+        <v>40999</v>
+      </c>
+      <c r="S47">
+        <v>0</v>
+      </c>
+      <c r="T47">
+        <v>957.96199999999999</v>
+      </c>
+      <c r="U47">
+        <v>2.2469999999999999</v>
+      </c>
+      <c r="V47">
+        <v>65.3</v>
+      </c>
+      <c r="W47">
+        <v>-37.6</v>
+      </c>
+      <c r="X47">
+        <v>24.8</v>
+      </c>
+      <c r="Y47">
+        <v>0</v>
+      </c>
+      <c r="Z47">
+        <v>0</v>
+      </c>
+      <c r="AA47">
+        <v>32.6</v>
+      </c>
+    </row>
+    <row r="48" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A48" s="1">
+        <v>41090</v>
+      </c>
+      <c r="B48" t="s">
+        <v>73</v>
+      </c>
+      <c r="C48">
+        <v>80.400000000000006</v>
+      </c>
+      <c r="D48">
+        <v>870.9</v>
+      </c>
+      <c r="E48">
+        <v>289.20400000000001</v>
+      </c>
+      <c r="F48">
+        <v>108.8</v>
+      </c>
+      <c r="G48">
+        <v>432.18200000000002</v>
+      </c>
+      <c r="H48">
+        <v>8081.8530000000001</v>
+      </c>
+      <c r="I48">
+        <v>245.125</v>
+      </c>
+      <c r="J48">
+        <v>2353.0120000000002</v>
+      </c>
+      <c r="K48">
+        <v>0</v>
+      </c>
+      <c r="L48">
+        <v>0</v>
+      </c>
+      <c r="M48">
+        <v>-57.3</v>
+      </c>
+      <c r="N48">
+        <v>330.221</v>
+      </c>
+      <c r="O48">
+        <v>3811.3</v>
+      </c>
+      <c r="P48">
+        <v>2380.7220000000002</v>
+      </c>
+      <c r="Q48">
+        <v>0.8</v>
+      </c>
+      <c r="R48">
+        <v>41090</v>
+      </c>
+      <c r="S48">
+        <v>0</v>
+      </c>
+      <c r="T48">
+        <v>4270.5529999999999</v>
+      </c>
+      <c r="U48">
+        <v>2.9809999999999999</v>
+      </c>
+      <c r="V48">
+        <v>24.1</v>
+      </c>
+      <c r="W48">
+        <v>-42.3</v>
+      </c>
+      <c r="X48">
+        <v>99.7</v>
+      </c>
+      <c r="Y48">
+        <v>0</v>
+      </c>
+      <c r="Z48">
+        <v>0</v>
+      </c>
+      <c r="AA48">
+        <v>80.400000000000006</v>
+      </c>
+    </row>
+    <row r="49" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A49" s="1">
+        <v>41182</v>
+      </c>
+      <c r="B49" t="s">
+        <v>74</v>
+      </c>
+      <c r="C49">
+        <v>30.6</v>
+      </c>
+      <c r="D49">
+        <v>815.4</v>
+      </c>
+      <c r="E49">
+        <v>294.16800000000001</v>
+      </c>
+      <c r="F49">
+        <v>128.80000000000001</v>
+      </c>
+      <c r="G49">
+        <v>482.16300000000001</v>
+      </c>
+      <c r="H49">
+        <v>8203.8269999999993</v>
+      </c>
+      <c r="I49">
+        <v>305.73700000000002</v>
+      </c>
+      <c r="J49">
+        <v>2433.165</v>
+      </c>
+      <c r="K49">
+        <v>0</v>
+      </c>
+      <c r="L49">
+        <v>0</v>
+      </c>
+      <c r="M49">
+        <v>-0.8</v>
+      </c>
+      <c r="N49">
+        <v>380.50400000000002</v>
+      </c>
+      <c r="O49">
+        <v>3951.308</v>
+      </c>
+      <c r="P49">
+        <v>2460.4209999999998</v>
+      </c>
+      <c r="Q49">
+        <v>22.4</v>
+      </c>
+      <c r="R49">
+        <v>41182</v>
+      </c>
+      <c r="S49">
+        <v>0</v>
+      </c>
+      <c r="T49">
+        <v>4252.5190000000002</v>
+      </c>
+      <c r="U49">
+        <v>25.390999999999998</v>
+      </c>
+      <c r="V49">
+        <v>130.9</v>
+      </c>
+      <c r="W49">
+        <v>-50.8</v>
+      </c>
+      <c r="X49">
+        <v>30.2</v>
+      </c>
+      <c r="Y49">
+        <v>0</v>
+      </c>
+      <c r="Z49">
+        <v>0</v>
+      </c>
+      <c r="AA49">
+        <v>30.6</v>
+      </c>
+    </row>
+    <row r="50" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A50" s="1">
+        <v>41274</v>
+      </c>
+      <c r="B50" t="s">
+        <v>75</v>
+      </c>
+      <c r="C50">
+        <v>81.5</v>
+      </c>
+      <c r="D50">
+        <v>1265.2</v>
+      </c>
+      <c r="E50">
+        <v>324</v>
+      </c>
+      <c r="F50">
+        <v>163.1</v>
+      </c>
+      <c r="G50">
+        <v>478</v>
+      </c>
+      <c r="H50">
+        <v>8284</v>
+      </c>
+      <c r="I50">
+        <v>301</v>
+      </c>
+      <c r="J50">
+        <v>2543</v>
+      </c>
+      <c r="K50">
+        <v>0</v>
+      </c>
+      <c r="L50">
+        <v>0</v>
+      </c>
+      <c r="M50">
+        <v>0</v>
+      </c>
+      <c r="N50">
+        <v>412</v>
+      </c>
+      <c r="O50">
+        <v>4009</v>
+      </c>
+      <c r="P50">
+        <v>2555</v>
+      </c>
+      <c r="Q50">
+        <v>1.9</v>
+      </c>
+      <c r="R50">
+        <v>41274</v>
+      </c>
+      <c r="S50">
+        <v>758</v>
+      </c>
+      <c r="T50">
+        <v>4275</v>
+      </c>
+      <c r="U50">
+        <v>27</v>
+      </c>
+      <c r="V50">
+        <v>139.69999999999999</v>
+      </c>
+      <c r="W50">
+        <v>-50.3</v>
+      </c>
+      <c r="X50">
+        <v>59.3</v>
+      </c>
+      <c r="Y50">
+        <v>0</v>
+      </c>
+      <c r="Z50">
+        <v>-8</v>
+      </c>
+      <c r="AA50">
+        <v>81.5</v>
+      </c>
+    </row>
+    <row r="51" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A51" s="1">
+        <v>41364</v>
+      </c>
+      <c r="B51" t="s">
+        <v>76</v>
+      </c>
+      <c r="C51">
+        <v>91</v>
+      </c>
+      <c r="D51">
+        <v>1249</v>
+      </c>
+      <c r="E51">
+        <v>368.4</v>
+      </c>
+      <c r="F51">
+        <v>196</v>
+      </c>
+      <c r="G51">
+        <v>511.5</v>
+      </c>
+      <c r="H51">
+        <v>8391.6</v>
+      </c>
+      <c r="I51">
+        <v>407.6</v>
+      </c>
+      <c r="J51">
+        <v>2231.4</v>
+      </c>
+      <c r="K51">
+        <v>0</v>
+      </c>
+      <c r="L51">
+        <v>0</v>
+      </c>
+      <c r="M51">
+        <v>-325</v>
+      </c>
+      <c r="N51">
+        <v>468.7</v>
+      </c>
+      <c r="O51">
+        <v>3747.5</v>
+      </c>
+      <c r="P51">
+        <v>2243.5</v>
+      </c>
+      <c r="Q51">
+        <v>19</v>
+      </c>
+      <c r="R51">
+        <v>41364</v>
+      </c>
+      <c r="S51">
+        <v>0</v>
+      </c>
+      <c r="T51">
+        <v>4644.1000000000004</v>
+      </c>
+      <c r="U51">
+        <v>46.4</v>
+      </c>
+      <c r="V51">
+        <v>232</v>
+      </c>
+      <c r="W51">
+        <v>-52</v>
+      </c>
+      <c r="X51">
+        <v>-45</v>
+      </c>
+      <c r="Y51">
+        <v>0</v>
+      </c>
+      <c r="Z51">
+        <v>-5</v>
+      </c>
+      <c r="AA51">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="52" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A52" s="1">
+        <v>41455</v>
+      </c>
+      <c r="B52" t="s">
+        <v>77</v>
+      </c>
+      <c r="C52">
+        <v>93</v>
+      </c>
+      <c r="D52">
+        <v>1175</v>
+      </c>
+      <c r="E52">
+        <v>375.6</v>
+      </c>
+      <c r="F52">
+        <v>172</v>
+      </c>
+      <c r="G52">
+        <v>497.5</v>
+      </c>
+      <c r="H52">
+        <v>8544.9</v>
+      </c>
+      <c r="I52">
+        <v>407.8</v>
+      </c>
+      <c r="J52">
+        <v>2073.5</v>
+      </c>
+      <c r="K52">
+        <v>0</v>
+      </c>
+      <c r="L52">
+        <v>0</v>
+      </c>
+      <c r="M52">
+        <v>-176</v>
+      </c>
+      <c r="N52">
+        <v>721.7</v>
+      </c>
+      <c r="O52">
+        <v>3857.5</v>
+      </c>
+      <c r="P52">
+        <v>2334.9</v>
+      </c>
+      <c r="Q52">
+        <v>-36</v>
+      </c>
+      <c r="R52">
+        <v>41455</v>
+      </c>
+      <c r="S52">
+        <v>0</v>
+      </c>
+      <c r="T52">
+        <v>4687.3999999999996</v>
+      </c>
+      <c r="U52">
+        <v>9.8000000000000007</v>
+      </c>
+      <c r="V52">
+        <v>151</v>
+      </c>
+      <c r="W52">
+        <v>-54</v>
+      </c>
+      <c r="X52">
+        <v>50</v>
+      </c>
+      <c r="Y52">
+        <v>0</v>
+      </c>
+      <c r="Z52">
+        <v>-3</v>
+      </c>
+      <c r="AA52">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="53" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A53" s="1">
+        <v>41547</v>
+      </c>
+      <c r="B53" t="s">
+        <v>78</v>
+      </c>
+      <c r="C53">
+        <v>72</v>
+      </c>
+      <c r="D53">
+        <v>1300</v>
+      </c>
+      <c r="E53">
+        <v>395.5</v>
+      </c>
+      <c r="F53">
+        <v>183</v>
+      </c>
+      <c r="G53">
+        <v>560.1</v>
+      </c>
+      <c r="H53">
+        <v>8802.5</v>
+      </c>
+      <c r="I53">
+        <v>433.5</v>
+      </c>
+      <c r="J53">
+        <v>2000.1</v>
+      </c>
+      <c r="K53">
+        <v>0</v>
+      </c>
+      <c r="L53">
+        <v>0</v>
+      </c>
+      <c r="M53">
+        <v>-117</v>
+      </c>
+      <c r="N53">
+        <v>751</v>
+      </c>
+      <c r="O53">
+        <v>3848.2</v>
+      </c>
+      <c r="P53">
+        <v>2261.9</v>
+      </c>
+      <c r="Q53">
+        <v>5</v>
+      </c>
+      <c r="R53">
+        <v>41547</v>
+      </c>
+      <c r="S53">
+        <v>0</v>
+      </c>
+      <c r="T53">
+        <v>4954.3</v>
+      </c>
+      <c r="U53">
+        <v>15.5</v>
+      </c>
+      <c r="V53">
+        <v>94</v>
+      </c>
+      <c r="W53">
+        <v>-54</v>
+      </c>
+      <c r="X53">
+        <v>118</v>
+      </c>
+      <c r="Y53">
+        <v>0</v>
+      </c>
+      <c r="Z53">
+        <v>-2</v>
+      </c>
+      <c r="AA53">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="54" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A54" s="1">
+        <v>41639</v>
+      </c>
+      <c r="B54" t="s">
+        <v>79</v>
+      </c>
+      <c r="C54">
+        <v>95</v>
+      </c>
+      <c r="D54">
+        <v>1282</v>
+      </c>
+      <c r="E54">
+        <v>419</v>
+      </c>
+      <c r="F54">
+        <v>236</v>
+      </c>
+      <c r="G54">
+        <v>648</v>
+      </c>
+      <c r="H54">
+        <v>9142</v>
+      </c>
+      <c r="I54">
+        <v>359</v>
+      </c>
+      <c r="J54">
+        <v>2018</v>
+      </c>
+      <c r="K54">
+        <v>0</v>
+      </c>
+      <c r="L54">
+        <v>0</v>
+      </c>
+      <c r="M54">
+        <v>0</v>
+      </c>
+      <c r="N54">
+        <v>818</v>
+      </c>
+      <c r="O54">
+        <v>3971</v>
+      </c>
+      <c r="P54">
+        <v>2283</v>
+      </c>
+      <c r="Q54">
+        <v>36</v>
+      </c>
+      <c r="R54">
+        <v>41639</v>
+      </c>
+      <c r="S54">
+        <v>904</v>
+      </c>
+      <c r="T54">
+        <v>5171</v>
+      </c>
+      <c r="U54">
+        <v>51</v>
+      </c>
+      <c r="V54">
+        <v>208</v>
+      </c>
+      <c r="W54">
+        <v>0</v>
+      </c>
+      <c r="X54">
+        <v>110</v>
+      </c>
+      <c r="Y54">
+        <v>0</v>
+      </c>
+      <c r="Z54">
+        <v>-3</v>
+      </c>
+      <c r="AA54">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="55" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A55" s="1">
+        <v>41729</v>
+      </c>
+      <c r="B55" t="s">
+        <v>80</v>
+      </c>
+      <c r="C55">
+        <v>147</v>
+      </c>
+      <c r="D55">
+        <v>1759</v>
+      </c>
+      <c r="E55">
+        <v>432</v>
+      </c>
+      <c r="F55">
+        <v>300</v>
+      </c>
+      <c r="G55">
+        <v>729</v>
+      </c>
+      <c r="H55">
+        <v>9498</v>
+      </c>
+      <c r="I55">
+        <v>460</v>
+      </c>
+      <c r="J55">
+        <v>1881</v>
+      </c>
+      <c r="K55">
+        <v>0</v>
+      </c>
+      <c r="L55">
+        <v>0</v>
+      </c>
+      <c r="M55">
+        <v>-50</v>
+      </c>
+      <c r="N55">
+        <v>809</v>
+      </c>
+      <c r="O55">
+        <v>3875</v>
+      </c>
+      <c r="P55">
+        <v>2143</v>
+      </c>
+      <c r="Q55">
+        <v>102</v>
+      </c>
+      <c r="R55">
+        <v>41729</v>
+      </c>
+      <c r="S55">
+        <v>0</v>
+      </c>
+      <c r="T55">
+        <v>5623</v>
+      </c>
+      <c r="U55">
+        <v>153</v>
+      </c>
+      <c r="V55">
+        <v>261</v>
+      </c>
+      <c r="W55">
+        <v>-62</v>
+      </c>
+      <c r="X55">
+        <v>134</v>
+      </c>
+      <c r="Y55">
+        <v>0</v>
+      </c>
+      <c r="Z55">
+        <v>-2</v>
+      </c>
+      <c r="AA55">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="56" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A56" s="1">
+        <v>41820</v>
+      </c>
+      <c r="B56" t="s">
+        <v>81</v>
+      </c>
+      <c r="C56">
+        <v>77</v>
+      </c>
+      <c r="D56">
+        <v>1606</v>
+      </c>
+      <c r="E56">
+        <v>422</v>
+      </c>
+      <c r="F56">
+        <v>231</v>
+      </c>
+      <c r="G56">
+        <v>909</v>
+      </c>
+      <c r="H56">
+        <v>9892</v>
+      </c>
+      <c r="I56">
+        <v>442</v>
+      </c>
+      <c r="J56">
+        <v>2417</v>
+      </c>
+      <c r="K56">
+        <v>0</v>
+      </c>
+      <c r="L56">
+        <v>0</v>
+      </c>
+      <c r="M56">
+        <v>-247</v>
+      </c>
+      <c r="N56">
+        <v>538</v>
+      </c>
+      <c r="O56">
+        <v>4167</v>
+      </c>
+      <c r="P56">
+        <v>2421</v>
+      </c>
+      <c r="Q56">
+        <v>134</v>
+      </c>
+      <c r="R56">
+        <v>41820</v>
+      </c>
+      <c r="S56">
+        <v>0</v>
+      </c>
+      <c r="T56">
+        <v>5725</v>
+      </c>
+      <c r="U56">
+        <v>287</v>
+      </c>
+      <c r="V56">
+        <v>155</v>
+      </c>
+      <c r="W56">
+        <v>-65</v>
+      </c>
+      <c r="X56">
+        <v>286</v>
+      </c>
+      <c r="Y56">
+        <v>0</v>
+      </c>
+      <c r="Z56">
+        <v>-3</v>
+      </c>
+      <c r="AA56">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="57" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A57" s="1">
+        <v>41912</v>
+      </c>
+      <c r="B57" t="s">
+        <v>82</v>
+      </c>
+      <c r="C57">
+        <v>75</v>
+      </c>
+      <c r="D57">
+        <v>1445</v>
+      </c>
+      <c r="E57">
+        <v>421</v>
+      </c>
+      <c r="F57">
+        <v>209</v>
+      </c>
+      <c r="G57">
+        <v>957</v>
+      </c>
+      <c r="H57">
+        <v>10215</v>
+      </c>
+      <c r="I57">
+        <v>468</v>
+      </c>
+      <c r="J57">
+        <v>2367</v>
+      </c>
+      <c r="K57">
+        <v>0</v>
+      </c>
+      <c r="L57">
+        <v>0</v>
+      </c>
+      <c r="M57">
+        <v>-3</v>
+      </c>
+      <c r="N57">
+        <v>572</v>
+      </c>
+      <c r="O57">
+        <v>4172</v>
+      </c>
+      <c r="P57">
+        <v>2371</v>
+      </c>
+      <c r="Q57">
+        <v>42</v>
+      </c>
+      <c r="R57">
+        <v>41912</v>
+      </c>
+      <c r="S57">
+        <v>0</v>
+      </c>
+      <c r="T57">
+        <v>6043</v>
+      </c>
+      <c r="U57">
+        <v>329</v>
+      </c>
+      <c r="V57">
+        <v>188</v>
+      </c>
+      <c r="W57">
+        <v>-69</v>
+      </c>
+      <c r="X57">
+        <v>185</v>
+      </c>
+      <c r="Y57">
+        <v>0</v>
+      </c>
+      <c r="Z57">
+        <v>-2</v>
+      </c>
+      <c r="AA57">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="58" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A58" s="1">
+        <v>42004</v>
+      </c>
+      <c r="B58" t="s">
+        <v>83</v>
+      </c>
+      <c r="C58">
+        <v>84</v>
+      </c>
+      <c r="D58">
+        <v>1259</v>
+      </c>
+      <c r="E58">
+        <v>154</v>
+      </c>
+      <c r="F58">
+        <v>112</v>
+      </c>
+      <c r="G58">
+        <v>683</v>
+      </c>
+      <c r="H58">
+        <v>11262</v>
+      </c>
+      <c r="I58">
+        <v>444</v>
+      </c>
+      <c r="J58">
+        <v>2863</v>
+      </c>
+      <c r="K58">
+        <v>0</v>
+      </c>
+      <c r="L58">
+        <v>0</v>
+      </c>
+      <c r="M58">
+        <v>0</v>
+      </c>
+      <c r="N58">
+        <v>705</v>
+      </c>
+      <c r="O58">
+        <v>4926</v>
+      </c>
+      <c r="P58">
+        <v>2869</v>
+      </c>
+      <c r="Q58">
+        <v>-276</v>
+      </c>
+      <c r="R58">
+        <v>42004</v>
+      </c>
+      <c r="S58">
+        <v>1111</v>
+      </c>
+      <c r="T58">
+        <v>6336</v>
+      </c>
+      <c r="U58">
+        <v>53</v>
+      </c>
+      <c r="V58">
+        <v>196</v>
+      </c>
+      <c r="W58">
+        <v>-73</v>
+      </c>
+      <c r="X58">
+        <v>434</v>
+      </c>
+      <c r="Y58">
+        <v>0</v>
+      </c>
+      <c r="Z58">
+        <v>-1</v>
+      </c>
+      <c r="AA58">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="59" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A59" s="1">
+        <v>42094</v>
+      </c>
+      <c r="B59" t="s">
+        <v>84</v>
+      </c>
+      <c r="C59">
+        <v>120</v>
+      </c>
+      <c r="D59">
+        <v>1154</v>
+      </c>
+      <c r="E59">
+        <v>443</v>
+      </c>
+      <c r="F59">
+        <v>212</v>
+      </c>
+      <c r="G59">
+        <v>630</v>
+      </c>
+      <c r="H59">
+        <v>11738</v>
+      </c>
+      <c r="I59">
+        <v>529</v>
+      </c>
+      <c r="J59">
+        <v>3272</v>
+      </c>
+      <c r="K59">
+        <v>0</v>
+      </c>
+      <c r="L59">
+        <v>0</v>
+      </c>
+      <c r="M59">
+        <v>-461</v>
+      </c>
+      <c r="N59">
+        <v>619</v>
+      </c>
+      <c r="O59">
+        <v>5334</v>
+      </c>
+      <c r="P59">
+        <v>3276</v>
+      </c>
+      <c r="Q59">
+        <v>-11</v>
+      </c>
+      <c r="R59">
+        <v>42094</v>
+      </c>
+      <c r="S59">
+        <v>0</v>
+      </c>
+      <c r="T59">
+        <v>6404</v>
+      </c>
+      <c r="U59">
+        <v>42</v>
+      </c>
+      <c r="V59">
+        <v>120</v>
+      </c>
+      <c r="W59">
+        <v>-72</v>
+      </c>
+      <c r="X59">
+        <v>347</v>
+      </c>
+      <c r="Y59">
+        <v>0</v>
+      </c>
+      <c r="Z59">
+        <v>-19</v>
+      </c>
+      <c r="AA59">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="60" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A60" s="1">
+        <v>42185</v>
+      </c>
+      <c r="B60" t="s">
+        <v>85</v>
+      </c>
+      <c r="C60">
+        <v>43</v>
+      </c>
+      <c r="D60">
+        <v>1213</v>
+      </c>
+      <c r="E60">
+        <v>453</v>
+      </c>
+      <c r="F60">
+        <v>200</v>
+      </c>
+      <c r="G60">
+        <v>767</v>
+      </c>
+      <c r="H60">
+        <v>12167</v>
+      </c>
+      <c r="I60">
+        <v>502</v>
+      </c>
+      <c r="J60">
+        <v>3534</v>
+      </c>
+      <c r="K60">
+        <v>0</v>
+      </c>
+      <c r="L60">
+        <v>0</v>
+      </c>
+      <c r="M60">
+        <v>-462</v>
+      </c>
+      <c r="N60">
+        <v>579</v>
+      </c>
+      <c r="O60">
+        <v>5566</v>
+      </c>
+      <c r="P60">
+        <v>3539</v>
+      </c>
+      <c r="Q60">
+        <v>162</v>
+      </c>
+      <c r="R60">
+        <v>42185</v>
+      </c>
+      <c r="S60">
+        <v>0</v>
+      </c>
+      <c r="T60">
+        <v>6601</v>
+      </c>
+      <c r="U60">
+        <v>204</v>
+      </c>
+      <c r="V60">
+        <v>209</v>
+      </c>
+      <c r="W60">
+        <v>-69</v>
+      </c>
+      <c r="X60">
+        <v>412</v>
+      </c>
+      <c r="Y60">
+        <v>0</v>
+      </c>
+      <c r="Z60">
+        <v>-5</v>
+      </c>
+      <c r="AA60">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="61" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A61" s="1">
+        <v>42277</v>
+      </c>
+      <c r="B61" t="s">
+        <v>86</v>
+      </c>
+      <c r="C61">
+        <v>113</v>
+      </c>
+      <c r="D61">
+        <v>1026</v>
+      </c>
+      <c r="E61">
+        <v>482</v>
+      </c>
+      <c r="F61">
+        <v>196</v>
+      </c>
+      <c r="G61">
+        <v>642</v>
+      </c>
+      <c r="H61">
+        <v>12497</v>
+      </c>
+      <c r="I61">
+        <v>540</v>
+      </c>
+      <c r="J61">
+        <v>3498</v>
+      </c>
+      <c r="K61">
+        <v>0</v>
+      </c>
+      <c r="L61">
+        <v>0</v>
+      </c>
+      <c r="M61">
+        <v>-1</v>
+      </c>
+      <c r="N61">
+        <v>770</v>
+      </c>
+      <c r="O61">
+        <v>5731</v>
+      </c>
+      <c r="P61">
+        <v>3647</v>
+      </c>
+      <c r="Q61">
+        <v>-160</v>
+      </c>
+      <c r="R61">
+        <v>42277</v>
+      </c>
+      <c r="S61">
+        <v>0</v>
+      </c>
+      <c r="T61">
+        <v>6766</v>
+      </c>
+      <c r="U61">
+        <v>44</v>
+      </c>
+      <c r="V61">
+        <v>187</v>
+      </c>
+      <c r="W61">
+        <v>-76</v>
+      </c>
+      <c r="X61">
+        <v>130</v>
+      </c>
+      <c r="Y61">
+        <v>0</v>
+      </c>
+      <c r="Z61">
+        <v>-1</v>
+      </c>
+      <c r="AA61">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="62" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A62" s="1">
+        <v>42369</v>
+      </c>
+      <c r="B62" t="s">
+        <v>87</v>
+      </c>
+      <c r="C62">
+        <v>130</v>
+      </c>
+      <c r="D62">
+        <v>1242</v>
+      </c>
+      <c r="E62">
+        <v>111</v>
+      </c>
+      <c r="F62">
+        <v>224</v>
+      </c>
+      <c r="G62">
+        <v>642</v>
+      </c>
+      <c r="H62">
+        <v>12902</v>
+      </c>
+      <c r="I62">
+        <v>373</v>
+      </c>
+      <c r="J62">
+        <v>3323</v>
+      </c>
+      <c r="K62">
+        <v>0</v>
+      </c>
+      <c r="L62">
+        <v>0</v>
+      </c>
+      <c r="M62">
+        <v>0</v>
+      </c>
+      <c r="N62">
+        <v>605</v>
+      </c>
+      <c r="O62">
+        <v>5478</v>
+      </c>
+      <c r="P62">
+        <v>3331</v>
+      </c>
+      <c r="Q62">
+        <v>-16</v>
+      </c>
+      <c r="R62">
+        <v>42369</v>
+      </c>
+      <c r="S62">
+        <v>1274</v>
+      </c>
+      <c r="T62">
+        <v>7424</v>
+      </c>
+      <c r="U62">
+        <v>28</v>
+      </c>
+      <c r="V62">
+        <v>285</v>
+      </c>
+      <c r="W62">
+        <v>-77</v>
+      </c>
+      <c r="X62">
+        <v>183</v>
+      </c>
+      <c r="Y62">
+        <v>0</v>
+      </c>
+      <c r="Z62">
+        <v>-2</v>
+      </c>
+      <c r="AA62">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="63" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A63" s="1">
+        <v>42460</v>
+      </c>
+      <c r="B63" t="s">
+        <v>88</v>
+      </c>
+      <c r="C63">
+        <v>102</v>
+      </c>
+      <c r="D63">
+        <v>1017</v>
+      </c>
+      <c r="E63">
+        <v>459</v>
+      </c>
+      <c r="F63">
+        <v>238</v>
+      </c>
+      <c r="G63">
+        <v>803</v>
+      </c>
+      <c r="H63">
+        <v>13448</v>
+      </c>
+      <c r="I63">
+        <v>501</v>
+      </c>
+      <c r="J63">
+        <v>3292</v>
+      </c>
+      <c r="K63">
+        <v>0</v>
+      </c>
+      <c r="L63">
+        <v>0</v>
+      </c>
+      <c r="M63">
+        <v>-25</v>
+      </c>
+      <c r="N63">
+        <v>599</v>
+      </c>
+      <c r="O63">
+        <v>5508</v>
+      </c>
+      <c r="P63">
+        <v>3298</v>
+      </c>
+      <c r="Q63">
+        <v>218</v>
+      </c>
+      <c r="R63">
+        <v>42460</v>
+      </c>
+      <c r="S63">
+        <v>0</v>
+      </c>
+      <c r="T63">
+        <v>7940</v>
+      </c>
+      <c r="U63">
+        <v>246</v>
+      </c>
+      <c r="V63">
+        <v>271</v>
+      </c>
+      <c r="W63">
+        <v>-78</v>
+      </c>
+      <c r="X63">
+        <v>390</v>
+      </c>
+      <c r="Y63">
+        <v>0</v>
+      </c>
+      <c r="Z63">
+        <v>-2</v>
+      </c>
+      <c r="AA63">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="64" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A64" s="1">
+        <v>42551</v>
+      </c>
+      <c r="B64" t="s">
+        <v>89</v>
+      </c>
+      <c r="C64">
+        <v>113</v>
+      </c>
+      <c r="D64">
+        <v>1027</v>
+      </c>
+      <c r="E64">
+        <v>392</v>
+      </c>
+      <c r="F64">
+        <v>270</v>
+      </c>
+      <c r="G64">
+        <v>540</v>
+      </c>
+      <c r="H64">
+        <v>14145</v>
+      </c>
+      <c r="I64">
+        <v>485</v>
+      </c>
+      <c r="J64">
+        <v>3614</v>
+      </c>
+      <c r="K64">
+        <v>0</v>
+      </c>
+      <c r="L64">
+        <v>0</v>
+      </c>
+      <c r="M64">
+        <v>-2</v>
+      </c>
+      <c r="N64">
+        <v>611</v>
+      </c>
+      <c r="O64">
+        <v>5925</v>
+      </c>
+      <c r="P64">
+        <v>3620</v>
+      </c>
+      <c r="Q64">
+        <v>-226</v>
+      </c>
+      <c r="R64">
+        <v>42551</v>
+      </c>
+      <c r="S64">
+        <v>0</v>
+      </c>
+      <c r="T64">
+        <v>8220</v>
+      </c>
+      <c r="U64">
+        <v>20</v>
+      </c>
+      <c r="V64">
+        <v>273</v>
+      </c>
+      <c r="W64">
+        <v>-81</v>
+      </c>
+      <c r="X64">
+        <v>485</v>
+      </c>
+      <c r="Y64">
+        <v>0</v>
+      </c>
+      <c r="Z64">
+        <v>0</v>
+      </c>
+      <c r="AA64">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="65" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A65" s="1">
+        <v>42643</v>
+      </c>
+      <c r="B65" t="s">
+        <v>90</v>
+      </c>
+      <c r="C65">
+        <v>120</v>
+      </c>
+      <c r="D65">
+        <v>970</v>
+      </c>
+      <c r="E65">
+        <v>397</v>
+      </c>
+      <c r="F65">
+        <v>246</v>
+      </c>
+      <c r="G65">
+        <v>607</v>
+      </c>
+      <c r="H65">
+        <v>14606</v>
+      </c>
+      <c r="I65">
+        <v>632</v>
+      </c>
+      <c r="J65">
+        <v>3818</v>
+      </c>
+      <c r="K65">
+        <v>0</v>
+      </c>
+      <c r="L65">
+        <v>0</v>
+      </c>
+      <c r="M65">
+        <v>-299</v>
+      </c>
+      <c r="N65">
+        <v>755</v>
+      </c>
+      <c r="O65">
+        <v>6349</v>
+      </c>
+      <c r="P65">
+        <v>3824</v>
+      </c>
+      <c r="Q65">
+        <v>20</v>
+      </c>
+      <c r="R65">
+        <v>42643</v>
+      </c>
+      <c r="S65">
+        <v>0</v>
+      </c>
+      <c r="T65">
+        <v>8257</v>
+      </c>
+      <c r="U65">
+        <v>40</v>
+      </c>
+      <c r="V65">
+        <v>247</v>
+      </c>
+      <c r="W65">
+        <v>-94</v>
+      </c>
+      <c r="X65">
+        <v>112</v>
+      </c>
+      <c r="Y65">
+        <v>0</v>
+      </c>
+      <c r="Z65">
+        <v>0</v>
+      </c>
+      <c r="AA65">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="66" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A66" s="1">
+        <v>42735</v>
+      </c>
+      <c r="B66" t="s">
+        <v>91</v>
+      </c>
+      <c r="C66">
+        <v>131</v>
+      </c>
+      <c r="D66">
+        <v>1251</v>
+      </c>
+      <c r="E66">
+        <v>161</v>
+      </c>
+      <c r="F66">
+        <v>318</v>
+      </c>
+      <c r="G66">
+        <v>676</v>
+      </c>
+      <c r="H66">
+        <v>15017</v>
+      </c>
+      <c r="I66">
+        <v>475</v>
+      </c>
+      <c r="J66">
+        <v>4148</v>
+      </c>
+      <c r="K66">
+        <v>0</v>
+      </c>
+      <c r="L66">
+        <v>0</v>
+      </c>
+      <c r="M66">
+        <v>0</v>
+      </c>
+      <c r="N66">
+        <v>778</v>
+      </c>
+      <c r="O66">
+        <v>6721</v>
+      </c>
+      <c r="P66">
+        <v>4157</v>
+      </c>
+      <c r="Q66">
+        <v>-5</v>
+      </c>
+      <c r="R66">
+        <v>42735</v>
+      </c>
+      <c r="S66">
+        <v>1335</v>
+      </c>
+      <c r="T66">
+        <v>8296</v>
+      </c>
+      <c r="U66">
+        <v>35</v>
+      </c>
+      <c r="V66">
+        <v>286</v>
+      </c>
+      <c r="W66">
+        <v>-98</v>
+      </c>
+      <c r="X66">
+        <v>229</v>
+      </c>
+      <c r="Y66">
+        <v>0</v>
+      </c>
+      <c r="Z66">
+        <v>0</v>
+      </c>
+      <c r="AA66">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="67" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A67" s="1">
+        <v>42825</v>
+      </c>
+      <c r="B67" t="s">
+        <v>92</v>
+      </c>
+      <c r="C67">
+        <v>210</v>
+      </c>
+      <c r="D67">
+        <v>1480</v>
+      </c>
+      <c r="E67">
+        <v>463</v>
+      </c>
+      <c r="F67">
+        <v>363</v>
+      </c>
+      <c r="G67">
+        <v>628</v>
+      </c>
+      <c r="H67">
+        <v>15625</v>
+      </c>
+      <c r="I67">
+        <v>767</v>
+      </c>
+      <c r="J67">
+        <v>4477</v>
+      </c>
+      <c r="K67">
+        <v>0</v>
+      </c>
+      <c r="L67">
+        <v>0</v>
+      </c>
+      <c r="M67">
+        <v>-351</v>
+      </c>
+      <c r="N67">
+        <v>858</v>
+      </c>
+      <c r="O67">
+        <v>7198</v>
+      </c>
+      <c r="P67">
+        <v>4483</v>
+      </c>
+      <c r="Q67">
+        <v>1</v>
+      </c>
+      <c r="R67">
+        <v>42825</v>
+      </c>
+      <c r="S67">
+        <v>0</v>
+      </c>
+      <c r="T67">
+        <v>8427</v>
+      </c>
+      <c r="U67">
+        <v>36</v>
+      </c>
+      <c r="V67">
+        <v>326</v>
+      </c>
+      <c r="W67">
+        <v>-98</v>
+      </c>
+      <c r="X67">
+        <v>244</v>
+      </c>
+      <c r="Y67">
+        <v>0</v>
+      </c>
+      <c r="Z67">
+        <v>0</v>
+      </c>
+      <c r="AA67">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="68" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A68" s="1">
+        <v>42916</v>
+      </c>
+      <c r="B68" t="s">
+        <v>93</v>
+      </c>
+      <c r="C68">
+        <v>117</v>
+      </c>
+      <c r="D68">
+        <v>1159</v>
+      </c>
+      <c r="E68">
+        <v>386</v>
+      </c>
+      <c r="F68">
+        <v>264</v>
+      </c>
+      <c r="G68">
+        <v>548</v>
+      </c>
+      <c r="H68">
+        <v>15931</v>
+      </c>
+      <c r="I68">
+        <v>661</v>
+      </c>
+      <c r="J68">
+        <v>4809</v>
+      </c>
+      <c r="K68">
+        <v>0</v>
+      </c>
+      <c r="L68">
+        <v>0</v>
+      </c>
+      <c r="M68">
+        <v>-6</v>
+      </c>
+      <c r="N68">
+        <v>772</v>
+      </c>
+      <c r="O68">
+        <v>7488</v>
+      </c>
+      <c r="P68">
+        <v>4815</v>
+      </c>
+      <c r="Q68">
+        <v>17</v>
+      </c>
+      <c r="R68">
+        <v>42916</v>
+      </c>
+      <c r="S68">
+        <v>0</v>
+      </c>
+      <c r="T68">
+        <v>8443</v>
+      </c>
+      <c r="U68">
+        <v>53</v>
+      </c>
+      <c r="V68">
+        <v>362</v>
+      </c>
+      <c r="W68">
+        <v>-184</v>
+      </c>
+      <c r="X68">
+        <v>217</v>
+      </c>
+      <c r="Y68">
+        <v>0</v>
+      </c>
+      <c r="Z68">
+        <v>-1</v>
+      </c>
+      <c r="AA68">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="69" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A69" s="1">
+        <v>43008</v>
+      </c>
+      <c r="B69" t="s">
+        <v>94</v>
+      </c>
+      <c r="C69">
+        <v>111</v>
+      </c>
+      <c r="D69">
+        <v>1045</v>
+      </c>
+      <c r="E69">
+        <v>437</v>
+      </c>
+      <c r="F69">
+        <v>335</v>
+      </c>
+      <c r="G69">
+        <v>620</v>
+      </c>
+      <c r="H69">
+        <v>16265</v>
+      </c>
+      <c r="I69">
+        <v>665</v>
+      </c>
+      <c r="J69">
+        <v>5138</v>
+      </c>
+      <c r="K69">
+        <v>0</v>
+      </c>
+      <c r="L69">
+        <v>0</v>
+      </c>
+      <c r="M69">
+        <v>-458</v>
+      </c>
+      <c r="N69">
+        <v>792</v>
+      </c>
+      <c r="O69">
+        <v>7933</v>
+      </c>
+      <c r="P69">
+        <v>5144</v>
+      </c>
+      <c r="Q69">
+        <v>-22</v>
+      </c>
+      <c r="R69">
+        <v>43008</v>
+      </c>
+      <c r="S69">
+        <v>0</v>
+      </c>
+      <c r="T69">
+        <v>8332</v>
+      </c>
+      <c r="U69">
+        <v>31</v>
+      </c>
+      <c r="V69">
+        <v>302</v>
+      </c>
+      <c r="W69">
+        <v>-224</v>
+      </c>
+      <c r="X69">
+        <v>93</v>
+      </c>
+      <c r="Y69">
+        <v>0</v>
+      </c>
+      <c r="Z69">
+        <v>0</v>
+      </c>
+      <c r="AA69">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="70" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A70" s="1">
+        <v>43100</v>
+      </c>
+      <c r="B70" t="s">
+        <v>95</v>
+      </c>
+      <c r="C70">
+        <v>445</v>
+      </c>
+      <c r="D70">
+        <v>1716</v>
+      </c>
+      <c r="E70">
+        <v>177</v>
+      </c>
+      <c r="F70">
+        <v>467</v>
+      </c>
+      <c r="G70">
+        <v>1022</v>
+      </c>
+      <c r="H70">
+        <v>25566</v>
+      </c>
+      <c r="I70">
+        <v>465</v>
+      </c>
+      <c r="J70">
+        <v>7291</v>
+      </c>
+      <c r="K70">
+        <v>152</v>
+      </c>
+      <c r="L70">
+        <v>0</v>
+      </c>
+      <c r="M70">
+        <v>0</v>
+      </c>
+      <c r="N70">
+        <v>1150</v>
+      </c>
+      <c r="O70">
+        <v>11725</v>
+      </c>
+      <c r="P70">
+        <v>7558</v>
+      </c>
+      <c r="Q70">
+        <v>290</v>
+      </c>
+      <c r="R70">
+        <v>43100</v>
+      </c>
+      <c r="S70">
+        <v>1539</v>
+      </c>
+      <c r="T70">
+        <v>13841</v>
+      </c>
+      <c r="U70">
+        <v>321</v>
+      </c>
+      <c r="V70">
+        <v>523</v>
+      </c>
+      <c r="W70">
+        <v>-275</v>
+      </c>
+      <c r="X70">
+        <v>1551</v>
+      </c>
+      <c r="Y70">
+        <v>9</v>
+      </c>
+      <c r="Z70">
+        <v>-6</v>
+      </c>
+      <c r="AA70">
+        <v>445</v>
+      </c>
+    </row>
+    <row r="71" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A71" s="1">
+        <v>43190</v>
+      </c>
+      <c r="B71" t="s">
+        <v>96</v>
+      </c>
+      <c r="C71">
+        <v>330</v>
+      </c>
+      <c r="D71">
+        <v>1837</v>
+      </c>
+      <c r="E71">
+        <v>527</v>
+      </c>
+      <c r="F71">
+        <v>480</v>
+      </c>
+      <c r="G71">
+        <v>1032</v>
+      </c>
+      <c r="H71">
+        <v>25938</v>
+      </c>
+      <c r="I71">
+        <v>628</v>
+      </c>
+      <c r="J71">
+        <v>7512</v>
+      </c>
+      <c r="K71">
+        <v>152</v>
+      </c>
+      <c r="L71">
+        <v>0</v>
+      </c>
+      <c r="M71">
+        <v>-484</v>
+      </c>
+      <c r="N71">
+        <v>1088</v>
+      </c>
+      <c r="O71">
+        <v>11948</v>
+      </c>
+      <c r="P71">
+        <v>7766</v>
+      </c>
+      <c r="Q71">
+        <v>38</v>
+      </c>
+      <c r="R71">
+        <v>43190</v>
+      </c>
+      <c r="S71">
+        <v>0</v>
+      </c>
+      <c r="T71">
+        <v>13990</v>
+      </c>
+      <c r="U71">
+        <v>359</v>
+      </c>
+      <c r="V71">
+        <v>498</v>
+      </c>
+      <c r="W71">
+        <v>-302</v>
+      </c>
+      <c r="X71">
+        <v>-86</v>
+      </c>
+      <c r="Y71">
+        <v>0</v>
+      </c>
+      <c r="Z71">
+        <v>-58</v>
+      </c>
+      <c r="AA71">
+        <v>330</v>
+      </c>
+    </row>
+    <row r="72" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A72" s="1">
+        <v>43281</v>
+      </c>
+      <c r="B72" t="s">
+        <v>97</v>
+      </c>
+      <c r="C72">
+        <v>246</v>
+      </c>
+      <c r="D72">
+        <v>1743</v>
+      </c>
+      <c r="E72">
+        <v>512</v>
+      </c>
+      <c r="F72">
+        <v>470</v>
+      </c>
+      <c r="G72">
+        <v>844</v>
+      </c>
+      <c r="H72">
+        <v>25888</v>
+      </c>
+      <c r="I72">
+        <v>715</v>
+      </c>
+      <c r="J72">
+        <v>7015</v>
+      </c>
+      <c r="K72">
+        <v>151</v>
+      </c>
+      <c r="L72">
+        <v>0</v>
+      </c>
+      <c r="M72">
+        <v>-336</v>
+      </c>
+      <c r="N72">
+        <v>1450</v>
+      </c>
+      <c r="O72">
+        <v>11847</v>
+      </c>
+      <c r="P72">
+        <v>7468</v>
+      </c>
+      <c r="Q72">
+        <v>-278</v>
+      </c>
+      <c r="R72">
+        <v>43281</v>
+      </c>
+      <c r="S72">
+        <v>0</v>
+      </c>
+      <c r="T72">
+        <v>14041</v>
+      </c>
+      <c r="U72">
+        <v>81</v>
+      </c>
+      <c r="V72">
+        <v>603</v>
+      </c>
+      <c r="W72">
+        <v>-307</v>
+      </c>
+      <c r="X72">
+        <v>-576</v>
+      </c>
+      <c r="Y72">
+        <v>0</v>
+      </c>
+      <c r="Z72">
+        <v>0</v>
+      </c>
+      <c r="AA72">
+        <v>246</v>
+      </c>
+    </row>
+    <row r="73" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A73" s="1">
+        <v>43373</v>
+      </c>
+      <c r="B73" t="s">
+        <v>98</v>
+      </c>
+      <c r="C73">
+        <v>334</v>
+      </c>
+      <c r="D73">
+        <v>2045</v>
+      </c>
+      <c r="E73">
+        <v>590</v>
+      </c>
+      <c r="F73">
+        <v>504</v>
+      </c>
+      <c r="G73">
+        <v>1003</v>
+      </c>
+      <c r="H73">
+        <v>26135</v>
+      </c>
+      <c r="I73">
+        <v>758</v>
+      </c>
+      <c r="J73">
+        <v>7138</v>
+      </c>
+      <c r="K73">
+        <v>151</v>
+      </c>
+      <c r="L73">
+        <v>0</v>
+      </c>
+      <c r="M73">
+        <v>-7</v>
+      </c>
+      <c r="N73">
+        <v>1433</v>
+      </c>
+      <c r="O73">
+        <v>12070</v>
+      </c>
+      <c r="P73">
+        <v>7556</v>
+      </c>
+      <c r="Q73">
+        <v>48</v>
+      </c>
+      <c r="R73">
+        <v>43373</v>
+      </c>
+      <c r="S73">
+        <v>0</v>
+      </c>
+      <c r="T73">
+        <v>14065</v>
+      </c>
+      <c r="U73">
+        <v>129</v>
+      </c>
+      <c r="V73">
+        <v>481</v>
+      </c>
+      <c r="W73">
+        <v>-313</v>
+      </c>
+      <c r="X73">
+        <v>-179</v>
+      </c>
+      <c r="Y73">
+        <v>0</v>
+      </c>
+      <c r="Z73">
+        <v>0</v>
+      </c>
+      <c r="AA73">
+        <v>334</v>
+      </c>
+    </row>
+    <row r="74" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A74" s="1">
+        <v>43465</v>
+      </c>
+      <c r="B74" t="s">
+        <v>99</v>
+      </c>
+      <c r="C74">
+        <v>368</v>
+      </c>
+      <c r="D74">
+        <v>1726</v>
+      </c>
+      <c r="E74">
+        <v>500</v>
+      </c>
+      <c r="F74">
+        <v>440</v>
+      </c>
+      <c r="G74">
+        <v>1013</v>
+      </c>
+      <c r="H74">
+        <v>26664</v>
+      </c>
+      <c r="I74">
+        <v>519</v>
+      </c>
+      <c r="J74">
+        <v>7043</v>
+      </c>
+      <c r="K74">
+        <v>0</v>
+      </c>
+      <c r="L74">
+        <v>0</v>
+      </c>
+      <c r="M74">
+        <v>0</v>
+      </c>
+      <c r="N74">
+        <v>1490</v>
+      </c>
+      <c r="O74">
+        <v>12260</v>
+      </c>
+      <c r="P74">
+        <v>7537</v>
+      </c>
+      <c r="Q74">
+        <v>28</v>
+      </c>
+      <c r="R74">
+        <v>43465</v>
+      </c>
+      <c r="S74">
+        <v>2162</v>
+      </c>
+      <c r="T74">
+        <v>14404</v>
+      </c>
+      <c r="U74">
+        <v>157</v>
+      </c>
+      <c r="V74">
+        <v>674</v>
+      </c>
+      <c r="W74">
+        <v>-325</v>
+      </c>
+      <c r="X74">
+        <v>-285</v>
+      </c>
+      <c r="Y74">
+        <v>14</v>
+      </c>
+      <c r="Z74">
+        <v>0</v>
+      </c>
+      <c r="AA74">
+        <v>368</v>
+      </c>
+    </row>
+    <row r="75" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A75" s="1">
+        <v>43555</v>
+      </c>
+      <c r="B75" t="s">
+        <v>100</v>
+      </c>
+      <c r="C75">
+        <v>313</v>
+      </c>
+      <c r="D75">
+        <v>1968</v>
+      </c>
+      <c r="E75">
+        <v>578</v>
+      </c>
+      <c r="F75">
+        <v>518</v>
+      </c>
+      <c r="G75">
+        <v>911</v>
+      </c>
+      <c r="H75">
+        <v>27217</v>
+      </c>
+      <c r="I75">
+        <v>826</v>
+      </c>
+      <c r="J75">
+        <v>7089</v>
+      </c>
+      <c r="K75">
+        <v>0</v>
+      </c>
+      <c r="L75">
+        <v>0</v>
+      </c>
+      <c r="M75">
+        <v>-71</v>
+      </c>
+      <c r="N75">
+        <v>1516</v>
+      </c>
+      <c r="O75">
+        <v>12796</v>
+      </c>
+      <c r="P75">
+        <v>8020</v>
+      </c>
+      <c r="Q75">
+        <v>15</v>
+      </c>
+      <c r="R75">
+        <v>43555</v>
+      </c>
+      <c r="S75">
+        <v>0</v>
+      </c>
+      <c r="T75">
+        <v>14421</v>
+      </c>
+      <c r="U75">
+        <v>172</v>
+      </c>
+      <c r="V75">
+        <v>608</v>
+      </c>
+      <c r="W75">
+        <v>-314</v>
+      </c>
+      <c r="X75">
+        <v>-205</v>
+      </c>
+      <c r="Y75">
+        <v>396</v>
+      </c>
+      <c r="Z75">
+        <v>-33</v>
+      </c>
+      <c r="AA75">
+        <v>313</v>
+      </c>
+    </row>
+    <row r="76" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A76" s="1">
+        <v>43646</v>
+      </c>
+      <c r="B76" t="s">
+        <v>101</v>
+      </c>
+      <c r="C76">
+        <v>664</v>
+      </c>
+      <c r="D76">
+        <v>1808</v>
+      </c>
+      <c r="E76">
+        <v>534</v>
+      </c>
+      <c r="F76">
+        <v>516</v>
+      </c>
+      <c r="G76">
+        <v>978</v>
+      </c>
+      <c r="H76">
+        <v>27570</v>
+      </c>
+      <c r="I76">
+        <v>865</v>
+      </c>
+      <c r="J76">
+        <v>7468</v>
+      </c>
+      <c r="K76">
+        <v>0</v>
+      </c>
+      <c r="L76">
+        <v>0</v>
+      </c>
+      <c r="M76">
+        <v>0</v>
+      </c>
+      <c r="N76">
+        <v>1428</v>
+      </c>
+      <c r="O76">
+        <v>12861</v>
+      </c>
+      <c r="P76">
+        <v>8261</v>
+      </c>
+      <c r="Q76">
+        <v>156</v>
+      </c>
+      <c r="R76">
+        <v>43646</v>
+      </c>
+      <c r="S76">
+        <v>0</v>
+      </c>
+      <c r="T76">
+        <v>14709</v>
+      </c>
+      <c r="U76">
+        <v>328</v>
+      </c>
+      <c r="V76">
+        <v>661</v>
+      </c>
+      <c r="W76">
+        <v>-327</v>
+      </c>
+      <c r="X76">
+        <v>-64</v>
+      </c>
+      <c r="Y76">
+        <v>388</v>
+      </c>
+      <c r="Z76">
+        <v>-28</v>
+      </c>
+      <c r="AA76">
+        <v>664</v>
+      </c>
+    </row>
+    <row r="77" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A77" s="1">
+        <v>43738</v>
+      </c>
+      <c r="B77" t="s">
+        <v>102</v>
+      </c>
+      <c r="C77">
+        <v>370</v>
+      </c>
+      <c r="D77">
+        <v>1700</v>
+      </c>
+      <c r="E77">
+        <v>580</v>
+      </c>
+      <c r="F77">
+        <v>479</v>
+      </c>
+      <c r="G77">
+        <v>1380</v>
+      </c>
+      <c r="H77">
+        <v>28277</v>
+      </c>
+      <c r="I77">
+        <v>852</v>
+      </c>
+      <c r="J77">
+        <v>7980</v>
+      </c>
+      <c r="K77">
+        <v>0</v>
+      </c>
+      <c r="L77">
+        <v>0</v>
+      </c>
+      <c r="M77">
+        <v>-1014</v>
+      </c>
+      <c r="N77">
+        <v>1526</v>
+      </c>
+      <c r="O77">
+        <v>13465</v>
+      </c>
+      <c r="P77">
+        <v>8768</v>
+      </c>
+      <c r="Q77">
+        <v>292</v>
+      </c>
+      <c r="R77">
+        <v>43738</v>
+      </c>
+      <c r="S77">
+        <v>0</v>
+      </c>
+      <c r="T77">
+        <v>14812</v>
+      </c>
+      <c r="U77">
+        <v>620</v>
+      </c>
+      <c r="V77">
+        <v>535</v>
+      </c>
+      <c r="W77">
+        <v>-344</v>
+      </c>
+      <c r="X77">
+        <v>178</v>
+      </c>
+      <c r="Y77">
+        <v>383</v>
+      </c>
+      <c r="Z77">
+        <v>-25</v>
+      </c>
+      <c r="AA77">
+        <v>370</v>
+      </c>
+    </row>
+    <row r="78" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A78" s="1">
+        <v>43830</v>
+      </c>
+      <c r="B78" t="s">
+        <v>103</v>
+      </c>
+      <c r="C78">
+        <v>160</v>
+      </c>
+      <c r="D78">
+        <v>1754</v>
+      </c>
+      <c r="E78">
+        <v>575</v>
+      </c>
+      <c r="F78">
+        <v>534</v>
+      </c>
+      <c r="G78">
+        <v>989</v>
+      </c>
+      <c r="H78">
+        <v>32755</v>
+      </c>
+      <c r="I78">
+        <v>717</v>
+      </c>
+      <c r="J78">
+        <v>10078</v>
+      </c>
+      <c r="K78">
+        <v>0</v>
+      </c>
+      <c r="L78">
+        <v>0</v>
+      </c>
+      <c r="M78">
+        <v>0</v>
+      </c>
+      <c r="N78">
+        <v>1449</v>
+      </c>
+      <c r="O78">
+        <v>15887</v>
+      </c>
+      <c r="P78">
+        <v>10971</v>
+      </c>
+      <c r="Q78">
+        <v>-491</v>
+      </c>
+      <c r="R78">
+        <v>43830</v>
+      </c>
+      <c r="S78">
+        <v>2791</v>
+      </c>
+      <c r="T78">
+        <v>16868</v>
+      </c>
+      <c r="U78">
+        <v>129</v>
+      </c>
+      <c r="V78">
+        <v>728</v>
+      </c>
+      <c r="W78">
+        <v>-338</v>
+      </c>
+      <c r="X78">
+        <v>1442</v>
+      </c>
+      <c r="Y78">
+        <v>707</v>
+      </c>
+      <c r="Z78">
+        <v>-120</v>
+      </c>
+      <c r="AA78">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="79" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A79" s="1">
+        <v>43921</v>
+      </c>
+      <c r="B79" t="s">
+        <v>104</v>
+      </c>
+      <c r="C79">
+        <v>314</v>
+      </c>
+      <c r="D79">
+        <v>1671</v>
+      </c>
+      <c r="E79">
+        <v>533</v>
+      </c>
+      <c r="F79">
+        <v>519</v>
+      </c>
+      <c r="G79">
+        <v>924</v>
+      </c>
+      <c r="H79">
+        <v>34110</v>
+      </c>
+      <c r="I79">
+        <v>891</v>
+      </c>
+      <c r="J79">
+        <v>10339</v>
+      </c>
+      <c r="K79">
+        <v>0</v>
+      </c>
+      <c r="L79">
+        <v>0</v>
+      </c>
+      <c r="M79">
+        <v>-1141</v>
+      </c>
+      <c r="N79">
+        <v>1525</v>
+      </c>
+      <c r="O79">
+        <v>16846</v>
+      </c>
+      <c r="P79">
+        <v>11483</v>
+      </c>
+      <c r="Q79">
+        <v>3</v>
+      </c>
+      <c r="R79">
+        <v>43921</v>
+      </c>
+      <c r="S79">
+        <v>0</v>
+      </c>
+      <c r="T79">
+        <v>17264</v>
+      </c>
+      <c r="U79">
+        <v>132</v>
+      </c>
+      <c r="V79">
+        <v>410</v>
+      </c>
+      <c r="W79">
+        <v>-378</v>
+      </c>
+      <c r="X79">
+        <v>142</v>
+      </c>
+      <c r="Y79">
+        <v>726</v>
+      </c>
+      <c r="Z79">
+        <v>-172</v>
+      </c>
+      <c r="AA79">
+        <v>314</v>
+      </c>
+    </row>
+    <row r="80" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A80" s="1">
+        <v>44012</v>
+      </c>
+      <c r="B80" t="s">
+        <v>105</v>
+      </c>
+      <c r="C80">
+        <v>253</v>
+      </c>
+      <c r="D80">
+        <v>1268</v>
+      </c>
+      <c r="E80">
+        <v>536</v>
+      </c>
+      <c r="F80">
+        <v>455</v>
+      </c>
+      <c r="G80">
+        <v>823</v>
+      </c>
+      <c r="H80">
+        <v>33791</v>
+      </c>
+      <c r="I80">
+        <v>753</v>
+      </c>
+      <c r="J80">
+        <v>10312</v>
+      </c>
+      <c r="K80">
+        <v>0</v>
+      </c>
+      <c r="L80">
+        <v>0</v>
+      </c>
+      <c r="M80">
+        <v>0</v>
+      </c>
+      <c r="N80">
+        <v>1601</v>
+      </c>
+      <c r="O80">
+        <v>16860</v>
+      </c>
+      <c r="P80">
+        <v>11574</v>
+      </c>
+      <c r="Q80">
+        <v>-59</v>
+      </c>
+      <c r="R80">
+        <v>44012</v>
+      </c>
+      <c r="S80">
+        <v>0</v>
+      </c>
+      <c r="T80">
+        <v>16931</v>
+      </c>
+      <c r="U80">
+        <v>73</v>
+      </c>
+      <c r="V80">
+        <v>642</v>
+      </c>
+      <c r="W80">
+        <v>-384</v>
+      </c>
+      <c r="X80">
+        <v>-274</v>
+      </c>
+      <c r="Y80">
+        <v>702</v>
+      </c>
+      <c r="Z80">
+        <v>-2</v>
+      </c>
+      <c r="AA80">
+        <v>253</v>
+      </c>
+    </row>
+    <row r="81" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A81" s="1">
+        <v>44104</v>
+      </c>
+      <c r="B81" t="s">
+        <v>106</v>
+      </c>
+      <c r="C81">
+        <v>318</v>
+      </c>
+      <c r="D81">
+        <v>1569</v>
+      </c>
+      <c r="E81">
+        <v>637</v>
+      </c>
+      <c r="F81">
+        <v>501</v>
+      </c>
+      <c r="G81">
+        <v>916</v>
+      </c>
+      <c r="H81">
+        <v>33995</v>
+      </c>
+      <c r="I81">
+        <v>697</v>
+      </c>
+      <c r="J81">
+        <v>10737</v>
+      </c>
+      <c r="K81">
+        <v>0</v>
+      </c>
+      <c r="L81">
+        <v>0</v>
+      </c>
+      <c r="M81">
+        <v>-315</v>
+      </c>
+      <c r="N81">
+        <v>1286</v>
+      </c>
+      <c r="O81">
+        <v>17226</v>
+      </c>
+      <c r="P81">
+        <v>11770</v>
+      </c>
+      <c r="Q81">
+        <v>-42</v>
+      </c>
+      <c r="R81">
+        <v>44104</v>
+      </c>
+      <c r="S81">
+        <v>0</v>
+      </c>
+      <c r="T81">
+        <v>16769</v>
+      </c>
+      <c r="U81">
+        <v>31</v>
+      </c>
+      <c r="V81">
+        <v>434</v>
+      </c>
+      <c r="W81">
+        <v>-384</v>
+      </c>
+      <c r="X81">
+        <v>-173</v>
+      </c>
+      <c r="Y81">
+        <v>686</v>
+      </c>
+      <c r="Z81">
+        <v>-28</v>
+      </c>
+      <c r="AA81">
+        <v>318</v>
+      </c>
+    </row>
+    <row r="82" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A82" s="1">
+        <v>44196</v>
+      </c>
+      <c r="B82" t="s">
+        <v>107</v>
+      </c>
+      <c r="C82">
         <v>-1201</v>
       </c>
-      <c r="D42">
+      <c r="D82">
         <v>1694</v>
       </c>
-      <c r="E42">
+      <c r="E82">
         <v>578</v>
       </c>
-      <c r="F42">
+      <c r="F82">
         <v>595</v>
       </c>
-      <c r="G42">
+      <c r="G82">
         <v>989</v>
       </c>
-      <c r="H42">
+      <c r="H82">
         <v>31416</v>
       </c>
-      <c r="I42">
+      <c r="I82">
         <v>434</v>
       </c>
-      <c r="J42">
+      <c r="J82">
         <v>10276</v>
       </c>
-      <c r="K42">
-        <v>0</v>
-      </c>
-      <c r="L42">
-        <v>0</v>
-      </c>
-      <c r="M42">
-        <v>0</v>
-      </c>
-      <c r="N42">
+      <c r="K82">
+        <v>0</v>
+      </c>
+      <c r="L82">
+        <v>0</v>
+      </c>
+      <c r="M82">
+        <v>0</v>
+      </c>
+      <c r="N82">
         <v>1781</v>
       </c>
-      <c r="O42">
+      <c r="O82">
         <v>16401</v>
       </c>
-      <c r="P42">
+      <c r="P82">
         <v>11650</v>
       </c>
-      <c r="Q42">
+      <c r="Q82">
         <v>50</v>
       </c>
-      <c r="R42">
+      <c r="R82">
         <v>44196</v>
       </c>
-      <c r="S42">
+      <c r="S82">
         <v>2623</v>
       </c>
-      <c r="T42">
+      <c r="T82">
         <v>15015</v>
       </c>
-      <c r="U42">
+      <c r="U82">
         <v>81</v>
       </c>
-      <c r="V42">
+      <c r="V82">
         <v>766</v>
       </c>
-      <c r="W42">
+      <c r="W82">
         <v>-384</v>
       </c>
-      <c r="X42">
+      <c r="X82">
         <v>-504</v>
       </c>
-      <c r="Y42">
+      <c r="Y82">
         <v>675</v>
       </c>
-      <c r="Z42">
-        <v>0</v>
-      </c>
-      <c r="AA42">
+      <c r="Z82">
+        <v>0</v>
+      </c>
+      <c r="AA82">
         <v>-1201</v>
       </c>
     </row>
